--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_20_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_20_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2334774.817438266</v>
+        <v>-2336384.098610425</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8000239.369791886</v>
+        <v>8000239.369791885</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>239.9879130210781</v>
       </c>
       <c r="C11" t="n">
-        <v>222.526963128605</v>
+        <v>130.3717412479781</v>
       </c>
       <c r="D11" t="n">
-        <v>211.9371129782804</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>239.1844414298593</v>
       </c>
       <c r="F11" t="n">
-        <v>264.1301170993089</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>167.947560964186</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.233700684801519</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>68.04769262841222</v>
       </c>
       <c r="U11" t="n">
         <v>108.3748977061044</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>185.0063298277324</v>
       </c>
       <c r="W11" t="n">
-        <v>188.2782667669065</v>
+        <v>206.4950400750105</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>226.9851720360666</v>
       </c>
       <c r="Y11" t="n">
-        <v>243.4920100136511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,22 +1446,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.78725500746481</v>
+        <v>23.78725500746486</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>29.96257034591326</v>
       </c>
       <c r="D12" t="n">
-        <v>4.699136922236221</v>
+        <v>4.699136922236278</v>
       </c>
       <c r="E12" t="n">
-        <v>14.89915181299841</v>
+        <v>14.89915181299847</v>
       </c>
       <c r="F12" t="n">
-        <v>2.323283750981346</v>
+        <v>23.94763707877933</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H12" t="n">
         <v>97.71325251404467</v>
@@ -1497,7 +1497,7 @@
         <v>6.799003079515217</v>
       </c>
       <c r="S12" t="n">
-        <v>15.72569581898664</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T12" t="n">
         <v>194.10392297596</v>
@@ -1506,16 +1506,16 @@
         <v>225.8424570692415</v>
       </c>
       <c r="V12" t="n">
-        <v>90.05465850702274</v>
+        <v>90.05465850702279</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>108.9490545185171</v>
       </c>
       <c r="X12" t="n">
-        <v>63.02705656107494</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>62.93676713490188</v>
       </c>
     </row>
     <row r="13">
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.08605153953476</v>
+        <v>37.08605153953482</v>
       </c>
       <c r="C13" t="n">
-        <v>24.5008924562253</v>
+        <v>24.50089245622536</v>
       </c>
       <c r="D13" t="n">
-        <v>5.869544375809824</v>
+        <v>5.86954437580988</v>
       </c>
       <c r="E13" t="n">
-        <v>3.688034004166639</v>
+        <v>3.688034004166695</v>
       </c>
       <c r="F13" t="n">
-        <v>2.675119380528713</v>
+        <v>2.67511938052877</v>
       </c>
       <c r="G13" t="n">
-        <v>23.98443253374962</v>
+        <v>99.58001748854714</v>
       </c>
       <c r="H13" t="n">
-        <v>8.273202207801942</v>
+        <v>8.273202207801999</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>59.3015325265537</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T13" t="n">
-        <v>79.81338309784165</v>
+        <v>79.81338309784171</v>
       </c>
       <c r="U13" t="n">
         <v>143.5043397223262</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>109.3917146814255</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>154.3258370738372</v>
+        <v>82.96372674663468</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.83872470969226</v>
+        <v>75.83872470969231</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.987913021078</v>
+        <v>239.9879130210781</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>151.1014573644925</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>264.1301170993089</v>
+        <v>264.130117099309</v>
       </c>
       <c r="G14" t="n">
-        <v>269.7464768811125</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>167.947560964186</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.233700684801462</v>
+        <v>2.233700684801519</v>
       </c>
       <c r="T14" t="n">
-        <v>68.04769262841216</v>
+        <v>38.35664589939327</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>185.0063298277324</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>206.4950400750105</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>226.9851720360666</v>
       </c>
       <c r="Y14" t="n">
         <v>243.4920100136511</v>
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.03748504623928</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>4.699136922236278</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>2.323283750981346</v>
+        <v>2.323283750981403</v>
       </c>
       <c r="G15" t="n">
         <v>135.8398569848641</v>
       </c>
       <c r="H15" t="n">
-        <v>97.71325251404467</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>6.799003079515217</v>
       </c>
       <c r="S15" t="n">
-        <v>143.7533427911297</v>
+        <v>15.22496805914312</v>
       </c>
       <c r="T15" t="n">
-        <v>51.35799433355749</v>
+        <v>51.35799433355755</v>
       </c>
       <c r="U15" t="n">
-        <v>83.09652842683896</v>
+        <v>83.09652842683901</v>
       </c>
       <c r="V15" t="n">
-        <v>90.05465850702274</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>108.9490545185171</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>63.02705656107494</v>
+        <v>63.027056561075</v>
       </c>
       <c r="Y15" t="n">
-        <v>62.93676713490183</v>
+        <v>62.93676713490188</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.08605153953476</v>
+        <v>37.08605153953482</v>
       </c>
       <c r="C16" t="n">
-        <v>24.5008924562253</v>
+        <v>24.50089245622536</v>
       </c>
       <c r="D16" t="n">
-        <v>5.869544375809824</v>
+        <v>5.86954437580988</v>
       </c>
       <c r="E16" t="n">
-        <v>3.688034004166639</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>2.675119380528713</v>
+        <v>2.67511938052877</v>
       </c>
       <c r="G16" t="n">
-        <v>23.98443253374962</v>
+        <v>23.98443253374968</v>
       </c>
       <c r="H16" t="n">
-        <v>8.273202207801942</v>
+        <v>8.273202207801999</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.59558495479764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>202.0474611689562</v>
+        <v>59.30153252655376</v>
       </c>
       <c r="T16" t="n">
-        <v>177.5434828604955</v>
+        <v>79.81338309784171</v>
       </c>
       <c r="U16" t="n">
         <v>143.5043397223262</v>
@@ -1828,10 +1828,10 @@
         <v>143.7770696941885</v>
       </c>
       <c r="X16" t="n">
-        <v>82.96372674663462</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.83872470969226</v>
+        <v>75.83872470969231</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>161.1459090108605</v>
       </c>
       <c r="C17" t="n">
-        <v>143.6849591183874</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>60.41448800636361</v>
+        <v>133.0951089680629</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>160.3424374196417</v>
       </c>
       <c r="F17" t="n">
-        <v>185.2881130890913</v>
+        <v>185.2881130890914</v>
       </c>
       <c r="G17" t="n">
         <v>190.9044728708949</v>
       </c>
       <c r="H17" t="n">
-        <v>89.10555695396846</v>
+        <v>89.10555695396849</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>29.53289369588677</v>
+        <v>29.53289369588681</v>
       </c>
       <c r="V17" t="n">
-        <v>106.1643258175148</v>
+        <v>16.82622655456043</v>
       </c>
       <c r="W17" t="n">
         <v>127.6530360647929</v>
       </c>
       <c r="X17" t="n">
-        <v>148.1431680258489</v>
+        <v>148.143168025849</v>
       </c>
       <c r="Y17" t="n">
         <v>164.6500060034335</v>
@@ -1926,13 +1926,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>19.79440474647343</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1974,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>54.39292579048817</v>
       </c>
       <c r="U18" t="n">
-        <v>4.254524416621384</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2008,22 +2008,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>75.42765023821035</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>202.0474611689562</v>
       </c>
       <c r="T19" t="n">
-        <v>222.5593117402442</v>
+        <v>0.9713790876240971</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2502683647287</v>
+        <v>64.66233571210863</v>
       </c>
       <c r="V19" t="n">
-        <v>30.54971067120789</v>
+        <v>190.962888370338</v>
       </c>
       <c r="W19" t="n">
-        <v>64.93506568397089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>4.121722736417041</v>
+        <v>4.12172273641707</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>161.1459090108605</v>
       </c>
       <c r="C20" t="n">
-        <v>143.6849591183874</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.236376404236566</v>
+        <v>133.0951089680629</v>
       </c>
       <c r="E20" t="n">
         <v>160.3424374196417</v>
       </c>
       <c r="F20" t="n">
-        <v>185.2881130890913</v>
+        <v>95.95001382613637</v>
       </c>
       <c r="G20" t="n">
         <v>190.9044728708949</v>
       </c>
       <c r="H20" t="n">
-        <v>89.10555695396846</v>
+        <v>89.10555695396849</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>29.53289369588678</v>
+        <v>29.53289369588681</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>106.1643258175148</v>
       </c>
       <c r="W20" t="n">
         <v>127.6530360647929</v>
       </c>
       <c r="X20" t="n">
-        <v>148.1431680258489</v>
+        <v>148.143168025849</v>
       </c>
       <c r="Y20" t="n">
         <v>164.6500060034335</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>37.62587671097612</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>6.799003079515217</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T21" t="n">
-        <v>73.93515685631627</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8424570692415</v>
+        <v>85.16645936203739</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2239,28 +2239,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S22" t="n">
-        <v>58.59617146530882</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9713790876240687</v>
+        <v>0.9713790876240971</v>
       </c>
       <c r="U22" t="n">
-        <v>64.6623357121086</v>
+        <v>64.66233571210863</v>
       </c>
       <c r="V22" t="n">
-        <v>30.54971067120789</v>
+        <v>30.54971067120792</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>64.93506568397092</v>
       </c>
       <c r="X22" t="n">
-        <v>4.121722736417041</v>
+        <v>163.8591793662352</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,22 +2318,22 @@
         <v>161.1459090108605</v>
       </c>
       <c r="C23" t="n">
-        <v>143.6849591183874</v>
+        <v>143.6849591183875</v>
       </c>
       <c r="D23" t="n">
-        <v>133.0951089680628</v>
+        <v>133.0951089680629</v>
       </c>
       <c r="E23" t="n">
         <v>160.3424374196417</v>
       </c>
       <c r="F23" t="n">
-        <v>185.2881130890913</v>
+        <v>185.2881130890914</v>
       </c>
       <c r="G23" t="n">
         <v>190.9044728708949</v>
       </c>
       <c r="H23" t="n">
-        <v>89.10555695396846</v>
+        <v>89.10555695396849</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>29.53289369588678</v>
+        <v>29.53289369588681</v>
       </c>
       <c r="V23" t="n">
         <v>106.1643258175148</v>
@@ -2381,7 +2381,7 @@
         <v>127.6530360647929</v>
       </c>
       <c r="X23" t="n">
-        <v>148.1431680258489</v>
+        <v>148.143168025849</v>
       </c>
       <c r="Y23" t="n">
         <v>164.6500060034335</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>97.71325251404467</v>
       </c>
       <c r="I24" t="n">
-        <v>37.62587671097612</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>6.799003079515217</v>
       </c>
       <c r="S24" t="n">
-        <v>127.2662231411577</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>4.254524416621384</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V24" t="n">
-        <v>11.21265449680516</v>
+        <v>61.52126443784874</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>103.0500683577463</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9713790876240687</v>
+        <v>0.9713790876240971</v>
       </c>
       <c r="U25" t="n">
         <v>286.2502683647287</v>
       </c>
       <c r="V25" t="n">
-        <v>30.54971067120789</v>
+        <v>229.5920540444901</v>
       </c>
       <c r="W25" t="n">
-        <v>64.93506568397089</v>
+        <v>64.93506568397092</v>
       </c>
       <c r="X25" t="n">
-        <v>4.121722736417041</v>
+        <v>4.12172273641707</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>231.8514855963709</v>
       </c>
       <c r="I26" t="n">
-        <v>23.28856145325723</v>
+        <v>23.2885614532572</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.13762531698639</v>
+        <v>66.13762531698633</v>
       </c>
       <c r="T26" t="n">
         <v>131.9516172605971</v>
       </c>
       <c r="U26" t="n">
-        <v>172.2788223382893</v>
+        <v>172.2788223382892</v>
       </c>
       <c r="V26" t="n">
         <v>248.9102544599173</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.9899761717197</v>
+        <v>100.9899761717196</v>
       </c>
       <c r="C28" t="n">
-        <v>88.40481708841021</v>
+        <v>88.40481708841018</v>
       </c>
       <c r="D28" t="n">
-        <v>69.77346900799473</v>
+        <v>69.77346900799471</v>
       </c>
       <c r="E28" t="n">
-        <v>67.59195863635155</v>
+        <v>67.59195863635152</v>
       </c>
       <c r="F28" t="n">
-        <v>66.57904401271362</v>
+        <v>66.5790440127136</v>
       </c>
       <c r="G28" t="n">
-        <v>87.88835716593454</v>
+        <v>87.88835716593451</v>
       </c>
       <c r="H28" t="n">
-        <v>72.17712683998685</v>
+        <v>72.17712683998683</v>
       </c>
       <c r="I28" t="n">
-        <v>38.69824412549291</v>
+        <v>38.69824412549288</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76940982432941</v>
+        <v>41.76940982432938</v>
       </c>
       <c r="S28" t="n">
         <v>123.2054571587386</v>
@@ -2810,7 +2810,7 @@
         <v>231.8514855963709</v>
       </c>
       <c r="I29" t="n">
-        <v>23.2885614532572</v>
+        <v>23.28856145325722</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.13762531698637</v>
+        <v>66.13762531698633</v>
       </c>
       <c r="T29" t="n">
         <v>131.9516172605971</v>
       </c>
       <c r="U29" t="n">
-        <v>172.2788223382893</v>
+        <v>172.2788223382892</v>
       </c>
       <c r="V29" t="n">
         <v>248.9102544599173</v>
@@ -2889,7 +2889,7 @@
         <v>97.71325251404467</v>
       </c>
       <c r="I30" t="n">
-        <v>37.62587671097611</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.799003079515202</v>
+        <v>6.799003079515231</v>
       </c>
       <c r="S30" t="n">
         <v>143.7533427911297</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.9899761717197</v>
+        <v>100.9899761717196</v>
       </c>
       <c r="C31" t="n">
-        <v>88.40481708841021</v>
+        <v>88.40481708841018</v>
       </c>
       <c r="D31" t="n">
-        <v>69.77346900799473</v>
+        <v>69.77346900799471</v>
       </c>
       <c r="E31" t="n">
-        <v>67.59195863635155</v>
+        <v>67.59195863635152</v>
       </c>
       <c r="F31" t="n">
-        <v>66.57904401271362</v>
+        <v>66.5790440127136</v>
       </c>
       <c r="G31" t="n">
-        <v>87.88835716593452</v>
+        <v>87.88835716593449</v>
       </c>
       <c r="H31" t="n">
-        <v>72.17712683998685</v>
+        <v>72.17712683998683</v>
       </c>
       <c r="I31" t="n">
-        <v>38.69824412549291</v>
+        <v>38.69824412549288</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.7694098243294</v>
+        <v>41.76940982432939</v>
       </c>
       <c r="S31" t="n">
         <v>123.2054571587386</v>
@@ -3038,16 +3038,16 @@
         <v>303.0883660620441</v>
       </c>
       <c r="F32" t="n">
-        <v>328.0340417314938</v>
+        <v>328.0340417314937</v>
       </c>
       <c r="G32" t="n">
-        <v>333.6504015132974</v>
+        <v>333.6504015132973</v>
       </c>
       <c r="H32" t="n">
         <v>231.8514855963709</v>
       </c>
       <c r="I32" t="n">
-        <v>23.2885614532572</v>
+        <v>23.28856145325717</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.13762531698636</v>
+        <v>66.13762531698633</v>
       </c>
       <c r="T32" t="n">
-        <v>131.9516172605971</v>
+        <v>131.951617260597</v>
       </c>
       <c r="U32" t="n">
         <v>172.2788223382892</v>
       </c>
       <c r="V32" t="n">
-        <v>248.9102544599173</v>
+        <v>248.9102544599172</v>
       </c>
       <c r="W32" t="n">
-        <v>270.3989647071954</v>
+        <v>270.3989647071953</v>
       </c>
       <c r="X32" t="n">
-        <v>290.8890966682514</v>
+        <v>290.8890966682513</v>
       </c>
       <c r="Y32" t="n">
-        <v>307.395934645836</v>
+        <v>307.3959346458359</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>100.9899761717196</v>
       </c>
       <c r="C34" t="n">
-        <v>88.40481708841018</v>
+        <v>88.40481708841016</v>
       </c>
       <c r="D34" t="n">
-        <v>69.77346900799471</v>
+        <v>69.77346900799468</v>
       </c>
       <c r="E34" t="n">
-        <v>67.59195863635152</v>
+        <v>67.59195863635149</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5790440127136</v>
+        <v>66.57904401271357</v>
       </c>
       <c r="G34" t="n">
-        <v>87.88835716593451</v>
+        <v>87.88835716593448</v>
       </c>
       <c r="H34" t="n">
-        <v>72.17712683998683</v>
+        <v>72.1771268399868</v>
       </c>
       <c r="I34" t="n">
-        <v>38.69824412549288</v>
+        <v>38.69824412549285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76940982432938</v>
+        <v>41.76940982432935</v>
       </c>
       <c r="S34" t="n">
-        <v>123.2054571587386</v>
+        <v>123.2054571587385</v>
       </c>
       <c r="T34" t="n">
         <v>143.7173077300265</v>
       </c>
       <c r="U34" t="n">
-        <v>207.4082643545111</v>
+        <v>207.408264354511</v>
       </c>
       <c r="V34" t="n">
-        <v>173.2956393136104</v>
+        <v>173.2956393136103</v>
       </c>
       <c r="W34" t="n">
-        <v>207.6809943263734</v>
+        <v>207.6809943263733</v>
       </c>
       <c r="X34" t="n">
         <v>146.8676513788195</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.7426493418772</v>
+        <v>139.7426493418771</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.5640882773553</v>
+        <v>202.5640882773554</v>
       </c>
       <c r="C35" t="n">
         <v>185.1031383848823</v>
@@ -3272,7 +3272,7 @@
         <v>174.5132882345577</v>
       </c>
       <c r="E35" t="n">
-        <v>201.7606166861365</v>
+        <v>201.7606166861366</v>
       </c>
       <c r="F35" t="n">
         <v>226.7062923555862</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>30.62386788468945</v>
+        <v>30.62386788468947</v>
       </c>
       <c r="U35" t="n">
-        <v>70.95107296238164</v>
+        <v>70.95107296238166</v>
       </c>
       <c r="V35" t="n">
         <v>147.5825050840097</v>
@@ -3332,7 +3332,7 @@
         <v>189.5613472923438</v>
       </c>
       <c r="Y35" t="n">
-        <v>206.0681852699283</v>
+        <v>206.0681852699284</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3351,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3360,10 +3360,10 @@
         <v>135.8398569848641</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>97.71325251404467</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>113.5183966446578</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U36" t="n">
         <v>225.8424570692415</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>147.4031206763821</v>
       </c>
     </row>
     <row r="37">
@@ -3421,31 +3421,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>40.34453197107872</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>21.87770778283098</v>
+        <v>21.87770778283101</v>
       </c>
       <c r="T37" t="n">
-        <v>42.38955835411893</v>
+        <v>42.38955835411896</v>
       </c>
       <c r="U37" t="n">
         <v>106.0805149786035</v>
       </c>
       <c r="V37" t="n">
-        <v>71.96788993770275</v>
+        <v>71.96788993770278</v>
       </c>
       <c r="W37" t="n">
-        <v>106.3532449504658</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.5399020029119</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>54.28305460822494</v>
+        <v>38.41489996596957</v>
       </c>
     </row>
     <row r="38">
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>30.62386788468945</v>
+        <v>30.62386788468942</v>
       </c>
       <c r="U38" t="n">
-        <v>70.95107296238164</v>
+        <v>70.95107296238162</v>
       </c>
       <c r="V38" t="n">
-        <v>147.5825050840097</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W38" t="n">
-        <v>169.0712153312878</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X38" t="n">
         <v>189.5613472923438</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>106.1684663399525</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>135.8398569848641</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>6.799003079515217</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T39" t="n">
-        <v>13.93416958983478</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U39" t="n">
-        <v>190.0875548990442</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.1807125295426</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>39.30548233876432</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>21.87770778283098</v>
+        <v>21.87770778283096</v>
       </c>
       <c r="T40" t="n">
-        <v>42.38955835411893</v>
+        <v>42.3895583541189</v>
       </c>
       <c r="U40" t="n">
-        <v>106.0805149786035</v>
+        <v>286.2502683647287</v>
       </c>
       <c r="V40" t="n">
-        <v>71.96788993770275</v>
+        <v>71.96788993770272</v>
       </c>
       <c r="W40" t="n">
-        <v>106.3532449504658</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>45.5399020029119</v>
+        <v>45.53990200291187</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.41489996596954</v>
+        <v>38.41489996596951</v>
       </c>
     </row>
     <row r="41">
@@ -3791,16 +3791,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>30.62386788468945</v>
+        <v>30.62386788468942</v>
       </c>
       <c r="U41" t="n">
-        <v>70.95107296238164</v>
+        <v>70.95107296238162</v>
       </c>
       <c r="V41" t="n">
-        <v>147.5825050840097</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W41" t="n">
-        <v>169.0712153312878</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X41" t="n">
         <v>189.5613472923438</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>159.7334376768559</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3867,19 +3867,19 @@
         <v>6.799003079515217</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T42" t="n">
-        <v>13.93416958983478</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U42" t="n">
-        <v>190.0875548990442</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>71.52522977479433</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>76.93697450172824</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>21.87770778283098</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T43" t="n">
-        <v>42.38955835411893</v>
+        <v>42.3895583541189</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2502683647287</v>
+        <v>106.0805149786034</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>71.96788993770272</v>
       </c>
       <c r="W43" t="n">
-        <v>106.3532449504658</v>
+        <v>190.6959340915442</v>
       </c>
       <c r="X43" t="n">
-        <v>45.5399020029119</v>
+        <v>45.53990200291187</v>
       </c>
       <c r="Y43" t="n">
-        <v>38.41489996596954</v>
+        <v>38.41489996596951</v>
       </c>
     </row>
     <row r="44">
@@ -4028,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>30.62386788468945</v>
+        <v>30.62386788468942</v>
       </c>
       <c r="U44" t="n">
-        <v>70.95107296238163</v>
+        <v>70.95107296238162</v>
       </c>
       <c r="V44" t="n">
-        <v>147.5825050840097</v>
+        <v>147.5825050840096</v>
       </c>
       <c r="W44" t="n">
-        <v>169.0712153312878</v>
+        <v>169.0712153312877</v>
       </c>
       <c r="X44" t="n">
         <v>189.5613472923438</v>
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>65.7450565065862</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>97.71325251404467</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>37.62587671097612</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>143.7533427911297</v>
       </c>
       <c r="T45" t="n">
-        <v>13.93416958983478</v>
+        <v>194.10392297596</v>
       </c>
       <c r="U45" t="n">
-        <v>196.8865579785584</v>
+        <v>225.8424570692415</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4150,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>4.233474627595754</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>50.52603322239637</v>
       </c>
       <c r="S46" t="n">
-        <v>39.01964384171089</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T46" t="n">
-        <v>222.5593117402442</v>
+        <v>42.3895583541189</v>
       </c>
       <c r="U46" t="n">
-        <v>106.0805149786035</v>
+        <v>106.0805149786034</v>
       </c>
       <c r="V46" t="n">
-        <v>71.96788993770275</v>
+        <v>71.96788993770272</v>
       </c>
       <c r="W46" t="n">
-        <v>106.3532449504658</v>
+        <v>106.3532449504657</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>45.53990200291187</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>904.2925764379652</v>
+        <v>402.2869486677193</v>
       </c>
       <c r="C11" t="n">
-        <v>679.5178662070509</v>
+        <v>270.5983211445094</v>
       </c>
       <c r="D11" t="n">
-        <v>465.4399743097979</v>
+        <v>270.5983211445094</v>
       </c>
       <c r="E11" t="n">
-        <v>465.4399743097979</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="F11" t="n">
-        <v>198.6418762296879</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="G11" t="n">
-        <v>198.6418762296879</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H11" t="n">
         <v>28.99787525576258</v>
@@ -5039,19 +5039,19 @@
         <v>28.99787525576258</v>
       </c>
       <c r="J11" t="n">
-        <v>85.90061049936577</v>
+        <v>85.90061049936548</v>
       </c>
       <c r="K11" t="n">
-        <v>221.9215783630805</v>
+        <v>221.9215783630802</v>
       </c>
       <c r="L11" t="n">
-        <v>427.5693786526945</v>
+        <v>427.5693786526944</v>
       </c>
       <c r="M11" t="n">
-        <v>688.0616180080087</v>
+        <v>688.0616180080086</v>
       </c>
       <c r="N11" t="n">
-        <v>957.3827025111766</v>
+        <v>957.3827025111765</v>
       </c>
       <c r="O11" t="n">
         <v>1198.359704313245</v>
@@ -5066,25 +5066,25 @@
         <v>1449.893762788129</v>
       </c>
       <c r="S11" t="n">
-        <v>1449.893762788129</v>
+        <v>1447.637499470148</v>
       </c>
       <c r="T11" t="n">
-        <v>1449.893762788129</v>
+        <v>1378.902456411146</v>
       </c>
       <c r="U11" t="n">
-        <v>1340.424169145599</v>
+        <v>1269.432862768616</v>
       </c>
       <c r="V11" t="n">
-        <v>1340.424169145599</v>
+        <v>1082.557782134543</v>
       </c>
       <c r="W11" t="n">
-        <v>1150.244101704279</v>
+        <v>873.9769335739261</v>
       </c>
       <c r="X11" t="n">
-        <v>1150.244101704279</v>
+        <v>644.6989820223437</v>
       </c>
       <c r="Y11" t="n">
-        <v>904.2925764379652</v>
+        <v>644.6989820223437</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>362.3000981846035</v>
+        <v>377.1670493666841</v>
       </c>
       <c r="C12" t="n">
-        <v>187.8470689034765</v>
+        <v>346.9018267950545</v>
       </c>
       <c r="D12" t="n">
-        <v>183.1004659517228</v>
+        <v>342.1552238433007</v>
       </c>
       <c r="E12" t="n">
-        <v>168.0508176557648</v>
+        <v>327.1055755473427</v>
       </c>
       <c r="F12" t="n">
-        <v>165.7040663921472</v>
+        <v>302.9160431445353</v>
       </c>
       <c r="G12" t="n">
         <v>165.7040663921472</v>
@@ -5118,16 +5118,16 @@
         <v>28.99787525576258</v>
       </c>
       <c r="J12" t="n">
-        <v>168.9010325741028</v>
+        <v>44.07090758709807</v>
       </c>
       <c r="K12" t="n">
-        <v>272.8180703505467</v>
+        <v>231.7775249574945</v>
       </c>
       <c r="L12" t="n">
-        <v>458.8698929551091</v>
+        <v>417.8293475620568</v>
       </c>
       <c r="M12" t="n">
-        <v>695.3404626093588</v>
+        <v>776.6780538521188</v>
       </c>
       <c r="N12" t="n">
         <v>1033.815940760723</v>
@@ -5145,25 +5145,25 @@
         <v>1443.026082909831</v>
       </c>
       <c r="S12" t="n">
-        <v>1427.141541678531</v>
+        <v>1297.820686151114</v>
       </c>
       <c r="T12" t="n">
-        <v>1231.076973015945</v>
+        <v>1101.756117488528</v>
       </c>
       <c r="U12" t="n">
-        <v>1002.95327900661</v>
+        <v>873.6324234791933</v>
       </c>
       <c r="V12" t="n">
-        <v>911.988977484365</v>
+        <v>782.6681219569481</v>
       </c>
       <c r="W12" t="n">
-        <v>657.7516207561633</v>
+        <v>672.6185719382439</v>
       </c>
       <c r="X12" t="n">
-        <v>594.087927260128</v>
+        <v>464.7670717327111</v>
       </c>
       <c r="Y12" t="n">
-        <v>386.3276284951741</v>
+        <v>401.1945796772546</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.9622182718008</v>
+        <v>175.0451579962473</v>
       </c>
       <c r="C13" t="n">
-        <v>78.21384205339137</v>
+        <v>150.2967817778378</v>
       </c>
       <c r="D13" t="n">
-        <v>72.28500935055317</v>
+        <v>144.3679490749996</v>
       </c>
       <c r="E13" t="n">
-        <v>68.55972247765757</v>
+        <v>140.6426622021039</v>
       </c>
       <c r="F13" t="n">
-        <v>65.85758168924472</v>
+        <v>137.940521413691</v>
       </c>
       <c r="G13" t="n">
-        <v>41.63088216020471</v>
+        <v>37.35464516263329</v>
       </c>
       <c r="H13" t="n">
-        <v>33.27411225333405</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I13" t="n">
-        <v>33.27411225333405</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J13" t="n">
         <v>28.99787525576258</v>
@@ -5224,25 +5224,25 @@
         <v>1202.487986282109</v>
       </c>
       <c r="S13" t="n">
-        <v>1142.587448376499</v>
+        <v>998.3996416670012</v>
       </c>
       <c r="T13" t="n">
-        <v>1061.96786948979</v>
+        <v>917.7800627802924</v>
       </c>
       <c r="U13" t="n">
-        <v>917.0139909823898</v>
+        <v>772.8261842728921</v>
       </c>
       <c r="V13" t="n">
-        <v>662.329502776503</v>
+        <v>662.3295027765026</v>
       </c>
       <c r="W13" t="n">
-        <v>372.9123327395424</v>
+        <v>372.912332739542</v>
       </c>
       <c r="X13" t="n">
-        <v>217.0276488265755</v>
+        <v>289.1105885510221</v>
       </c>
       <c r="Y13" t="n">
-        <v>140.4228763925429</v>
+        <v>212.5058161169895</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>890.5388977902072</v>
+        <v>295.7959733358728</v>
       </c>
       <c r="C14" t="n">
-        <v>890.5388977902072</v>
+        <v>295.7959733358728</v>
       </c>
       <c r="D14" t="n">
-        <v>737.9111630785985</v>
+        <v>295.7959733358728</v>
       </c>
       <c r="E14" t="n">
-        <v>737.9111630785985</v>
+        <v>295.7959733358728</v>
       </c>
       <c r="F14" t="n">
-        <v>471.1130649984884</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="G14" t="n">
-        <v>198.6418762296879</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H14" t="n">
         <v>28.99787525576258</v>
@@ -5303,25 +5303,25 @@
         <v>1449.893762788129</v>
       </c>
       <c r="S14" t="n">
-        <v>1447.637499470148</v>
+        <v>1447.637499470147</v>
       </c>
       <c r="T14" t="n">
-        <v>1378.902456411146</v>
+        <v>1408.893412703083</v>
       </c>
       <c r="U14" t="n">
-        <v>1378.902456411146</v>
+        <v>1408.893412703083</v>
       </c>
       <c r="V14" t="n">
-        <v>1378.902456411146</v>
+        <v>1222.01833206901</v>
       </c>
       <c r="W14" t="n">
-        <v>1378.902456411146</v>
+        <v>1013.437483508394</v>
       </c>
       <c r="X14" t="n">
-        <v>1378.902456411146</v>
+        <v>784.1595319568114</v>
       </c>
       <c r="Y14" t="n">
-        <v>1132.950931144831</v>
+        <v>538.2080066904971</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>749.8817522842934</v>
+        <v>506.9936905101046</v>
       </c>
       <c r="C15" t="n">
-        <v>575.4287230031664</v>
+        <v>332.5406612289775</v>
       </c>
       <c r="D15" t="n">
-        <v>426.4943133419152</v>
+        <v>327.7940582772237</v>
       </c>
       <c r="E15" t="n">
-        <v>267.2568583364597</v>
+        <v>168.5566032717682</v>
       </c>
       <c r="F15" t="n">
-        <v>264.9101070728422</v>
+        <v>166.2098520081506</v>
       </c>
       <c r="G15" t="n">
-        <v>127.6981303204542</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H15" t="n">
         <v>28.99787525576258</v>
@@ -5373,34 +5373,34 @@
         <v>1165.489484876803</v>
       </c>
       <c r="P15" t="n">
-        <v>1317.116634152413</v>
+        <v>1398.454225395172</v>
       </c>
       <c r="Q15" t="n">
         <v>1449.893762788129</v>
       </c>
       <c r="R15" t="n">
-        <v>1443.026082909831</v>
+        <v>1443.02608290983</v>
       </c>
       <c r="S15" t="n">
-        <v>1297.820686151114</v>
+        <v>1427.647327294534</v>
       </c>
       <c r="T15" t="n">
-        <v>1245.943924198026</v>
+        <v>1375.770565341446</v>
       </c>
       <c r="U15" t="n">
-        <v>1162.008036898188</v>
+        <v>1291.834678041609</v>
       </c>
       <c r="V15" t="n">
-        <v>1071.043735375943</v>
+        <v>1056.682569809866</v>
       </c>
       <c r="W15" t="n">
-        <v>960.9941853572388</v>
+        <v>802.4452130816643</v>
       </c>
       <c r="X15" t="n">
-        <v>897.3304918612035</v>
+        <v>738.781519585629</v>
       </c>
       <c r="Y15" t="n">
-        <v>833.7579998057472</v>
+        <v>675.2090275301725</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.68598127422931</v>
+        <v>319.2329647057449</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9376050558199</v>
+        <v>294.4845884873354</v>
       </c>
       <c r="D16" t="n">
-        <v>68.00877235298169</v>
+        <v>288.5557557844972</v>
       </c>
       <c r="E16" t="n">
-        <v>64.2834854800861</v>
+        <v>140.6426622021041</v>
       </c>
       <c r="F16" t="n">
-        <v>61.58134469167325</v>
+        <v>137.9405214136912</v>
       </c>
       <c r="G16" t="n">
-        <v>37.35464516263323</v>
+        <v>113.7138218846511</v>
       </c>
       <c r="H16" t="n">
-        <v>28.99787525576258</v>
+        <v>105.3570519777804</v>
       </c>
       <c r="I16" t="n">
         <v>28.99787525576258</v>
@@ -5458,28 +5458,28 @@
         <v>1202.487986282109</v>
       </c>
       <c r="R16" t="n">
-        <v>1080.658275338122</v>
+        <v>1202.487986282109</v>
       </c>
       <c r="S16" t="n">
-        <v>876.5699307230144</v>
+        <v>1142.587448376499</v>
       </c>
       <c r="T16" t="n">
-        <v>697.2330793487765</v>
+        <v>1061.96786948979</v>
       </c>
       <c r="U16" t="n">
-        <v>552.2792008413763</v>
+        <v>917.0139909823897</v>
       </c>
       <c r="V16" t="n">
-        <v>441.782519344987</v>
+        <v>806.5173094860003</v>
       </c>
       <c r="W16" t="n">
-        <v>296.5531560175239</v>
+        <v>661.2879461585371</v>
       </c>
       <c r="X16" t="n">
-        <v>212.7514118290041</v>
+        <v>433.2983952605198</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.1466393949715</v>
+        <v>356.6936228264872</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>705.1570571130412</v>
+        <v>795.3975614190546</v>
       </c>
       <c r="C17" t="n">
-        <v>560.0207347712359</v>
+        <v>795.3975614190546</v>
       </c>
       <c r="D17" t="n">
-        <v>498.9959994112726</v>
+        <v>660.9580574109102</v>
       </c>
       <c r="E17" t="n">
-        <v>498.9959994112726</v>
+        <v>498.9959994112721</v>
       </c>
       <c r="F17" t="n">
-        <v>311.8362892202712</v>
+        <v>311.8362892202707</v>
       </c>
       <c r="G17" t="n">
         <v>119.0034883405792</v>
       </c>
       <c r="H17" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I17" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J17" t="n">
-        <v>85.90061049936577</v>
+        <v>85.9006104993656</v>
       </c>
       <c r="K17" t="n">
-        <v>221.9215783630805</v>
+        <v>221.9215783630804</v>
       </c>
       <c r="L17" t="n">
-        <v>427.5693786526947</v>
+        <v>427.5693786526945</v>
       </c>
       <c r="M17" t="n">
-        <v>688.061618008009</v>
+        <v>688.0616180080087</v>
       </c>
       <c r="N17" t="n">
-        <v>957.3827025111768</v>
+        <v>957.3827025111761</v>
       </c>
       <c r="O17" t="n">
-        <v>1198.359704313245</v>
+        <v>1198.359704313244</v>
       </c>
       <c r="P17" t="n">
-        <v>1369.526999292378</v>
+        <v>1369.526999292377</v>
       </c>
       <c r="Q17" t="n">
         <v>1449.893762788129</v>
       </c>
       <c r="R17" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="S17" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="T17" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="U17" t="n">
         <v>1420.062557034708</v>
       </c>
       <c r="V17" t="n">
-        <v>1312.825864289744</v>
+        <v>1403.066368595758</v>
       </c>
       <c r="W17" t="n">
-        <v>1183.883403618236</v>
+        <v>1274.12390792425</v>
       </c>
       <c r="X17" t="n">
-        <v>1034.243839955762</v>
+        <v>1124.484344261776</v>
       </c>
       <c r="Y17" t="n">
-        <v>867.9307025785569</v>
+        <v>958.1712068845702</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>372.3796624269019</v>
+        <v>509.2229175154602</v>
       </c>
       <c r="C18" t="n">
-        <v>197.9266331457749</v>
+        <v>334.7698882343331</v>
       </c>
       <c r="D18" t="n">
-        <v>48.99222348452363</v>
+        <v>334.7698882343331</v>
       </c>
       <c r="E18" t="n">
-        <v>28.99787525576259</v>
+        <v>175.5324332288776</v>
       </c>
       <c r="F18" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="G18" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H18" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I18" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J18" t="n">
-        <v>168.9010325741028</v>
+        <v>44.07090758709806</v>
       </c>
       <c r="K18" t="n">
-        <v>272.8180703505467</v>
+        <v>147.987945363542</v>
       </c>
       <c r="L18" t="n">
-        <v>458.8698929551091</v>
+        <v>334.0397679681043</v>
       </c>
       <c r="M18" t="n">
-        <v>695.3404626093588</v>
+        <v>570.5103376223542</v>
       </c>
       <c r="N18" t="n">
-        <v>952.4783495179635</v>
+        <v>827.6482245309588</v>
       </c>
       <c r="O18" t="n">
-        <v>1165.489484876803</v>
+        <v>1040.659359889798</v>
       </c>
       <c r="P18" t="n">
-        <v>1317.116634152413</v>
+        <v>1398.454225395172</v>
       </c>
       <c r="Q18" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="R18" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="S18" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788129</v>
       </c>
       <c r="T18" t="n">
-        <v>1449.89376278813</v>
+        <v>1394.951413504807</v>
       </c>
       <c r="U18" t="n">
-        <v>1445.596263377401</v>
+        <v>1166.827719495472</v>
       </c>
       <c r="V18" t="n">
-        <v>1210.444155145658</v>
+        <v>931.6756112637297</v>
       </c>
       <c r="W18" t="n">
-        <v>956.2067984174566</v>
+        <v>677.4382545355281</v>
       </c>
       <c r="X18" t="n">
-        <v>748.3552982119238</v>
+        <v>677.4382545355281</v>
       </c>
       <c r="Y18" t="n">
-        <v>540.59499944697</v>
+        <v>677.4382545355281</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>262.0082345648642</v>
+        <v>323.8009163360661</v>
       </c>
       <c r="C19" t="n">
-        <v>262.0082345648642</v>
+        <v>323.8009163360661</v>
       </c>
       <c r="D19" t="n">
-        <v>262.0082345648642</v>
+        <v>323.8009163360661</v>
       </c>
       <c r="E19" t="n">
-        <v>262.0082345648642</v>
+        <v>175.8878227536729</v>
       </c>
       <c r="F19" t="n">
-        <v>262.0082345648642</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="G19" t="n">
-        <v>262.0082345648642</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="H19" t="n">
-        <v>109.463657948496</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="I19" t="n">
-        <v>33.27411225333406</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="J19" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576258</v>
       </c>
       <c r="K19" t="n">
         <v>151.9473816770443</v>
@@ -5701,22 +5701,22 @@
         <v>876.5699307230144</v>
       </c>
       <c r="T19" t="n">
-        <v>651.7625451268082</v>
+        <v>875.5887397254143</v>
       </c>
       <c r="U19" t="n">
-        <v>362.6208599099105</v>
+        <v>810.2732491071228</v>
       </c>
       <c r="V19" t="n">
-        <v>331.7625663026298</v>
+        <v>617.3814426724379</v>
       </c>
       <c r="W19" t="n">
-        <v>266.1715908642753</v>
+        <v>327.9642726354772</v>
       </c>
       <c r="X19" t="n">
-        <v>262.0082345648642</v>
+        <v>323.8009163360661</v>
       </c>
       <c r="Y19" t="n">
-        <v>262.0082345648642</v>
+        <v>323.8009163360661</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>812.3937498580059</v>
+        <v>705.1570571130395</v>
       </c>
       <c r="C20" t="n">
-        <v>667.2574275162</v>
+        <v>705.1570571130395</v>
       </c>
       <c r="D20" t="n">
-        <v>660.9580574109106</v>
+        <v>570.7175531048952</v>
       </c>
       <c r="E20" t="n">
-        <v>498.9959994112725</v>
+        <v>408.7554951052572</v>
       </c>
       <c r="F20" t="n">
-        <v>311.8362892202711</v>
+        <v>311.836289220271</v>
       </c>
       <c r="G20" t="n">
         <v>119.0034883405792</v>
       </c>
       <c r="H20" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576255</v>
       </c>
       <c r="I20" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576255</v>
       </c>
       <c r="J20" t="n">
-        <v>85.90061049936577</v>
+        <v>85.90061049936573</v>
       </c>
       <c r="K20" t="n">
-        <v>221.921578363081</v>
+        <v>221.9215783630805</v>
       </c>
       <c r="L20" t="n">
-        <v>427.5693786526951</v>
+        <v>427.5693786526946</v>
       </c>
       <c r="M20" t="n">
-        <v>688.0616180080094</v>
+        <v>688.0616180080088</v>
       </c>
       <c r="N20" t="n">
-        <v>957.3827025111773</v>
+        <v>957.3827025111767</v>
       </c>
       <c r="O20" t="n">
         <v>1198.359704313245</v>
@@ -5771,31 +5771,31 @@
         <v>1369.526999292378</v>
       </c>
       <c r="Q20" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788128</v>
       </c>
       <c r="R20" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788128</v>
       </c>
       <c r="S20" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788128</v>
       </c>
       <c r="T20" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788128</v>
       </c>
       <c r="U20" t="n">
-        <v>1420.062557034709</v>
+        <v>1420.062557034707</v>
       </c>
       <c r="V20" t="n">
-        <v>1420.062557034709</v>
+        <v>1312.825864289742</v>
       </c>
       <c r="W20" t="n">
-        <v>1291.120096363201</v>
+        <v>1183.883403618234</v>
       </c>
       <c r="X20" t="n">
-        <v>1141.480532700727</v>
+        <v>1034.243839955761</v>
       </c>
       <c r="Y20" t="n">
-        <v>975.1673953235215</v>
+        <v>867.9307025785552</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.00381132745565</v>
+        <v>325.4473070136061</v>
       </c>
       <c r="C21" t="n">
-        <v>67.00381132745565</v>
+        <v>325.4473070136061</v>
       </c>
       <c r="D21" t="n">
-        <v>67.00381132745565</v>
+        <v>325.4473070136061</v>
       </c>
       <c r="E21" t="n">
-        <v>67.00381132745565</v>
+        <v>166.2098520081506</v>
       </c>
       <c r="F21" t="n">
-        <v>67.00381132745565</v>
+        <v>166.2098520081506</v>
       </c>
       <c r="G21" t="n">
-        <v>67.00381132745565</v>
+        <v>28.99787525576255</v>
       </c>
       <c r="H21" t="n">
-        <v>67.00381132745565</v>
+        <v>28.99787525576255</v>
       </c>
       <c r="I21" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576255</v>
       </c>
       <c r="J21" t="n">
-        <v>168.9010325741028</v>
+        <v>44.07090758709804</v>
       </c>
       <c r="K21" t="n">
-        <v>272.8180703505467</v>
+        <v>147.987945363542</v>
       </c>
       <c r="L21" t="n">
-        <v>458.8698929551091</v>
+        <v>334.0397679681043</v>
       </c>
       <c r="M21" t="n">
-        <v>695.3404626093588</v>
+        <v>692.8884742581658</v>
       </c>
       <c r="N21" t="n">
-        <v>952.4783495179635</v>
+        <v>950.0263611667705</v>
       </c>
       <c r="O21" t="n">
-        <v>1165.489484876803</v>
+        <v>1163.03749652561</v>
       </c>
       <c r="P21" t="n">
-        <v>1317.116634152413</v>
+        <v>1314.66464580122</v>
       </c>
       <c r="Q21" t="n">
-        <v>1449.89376278813</v>
+        <v>1449.893762788128</v>
       </c>
       <c r="R21" t="n">
-        <v>1443.026082909831</v>
+        <v>1449.893762788128</v>
       </c>
       <c r="S21" t="n">
-        <v>1443.026082909831</v>
+        <v>1304.688366029411</v>
       </c>
       <c r="T21" t="n">
-        <v>1368.34410628729</v>
+        <v>1108.623797366825</v>
       </c>
       <c r="U21" t="n">
-        <v>1140.220412277955</v>
+        <v>1022.597070738504</v>
       </c>
       <c r="V21" t="n">
-        <v>905.068304046212</v>
+        <v>787.4449625067616</v>
       </c>
       <c r="W21" t="n">
-        <v>650.8309473180104</v>
+        <v>533.20760577856</v>
       </c>
       <c r="X21" t="n">
-        <v>442.9794471124776</v>
+        <v>533.20760577856</v>
       </c>
       <c r="Y21" t="n">
-        <v>235.2191483475237</v>
+        <v>325.4473070136061</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>350.1233887636341</v>
+        <v>349.9569581106683</v>
       </c>
       <c r="C22" t="n">
-        <v>181.1872058357272</v>
+        <v>349.9569581106683</v>
       </c>
       <c r="D22" t="n">
-        <v>181.1872058357272</v>
+        <v>349.9569581106683</v>
       </c>
       <c r="E22" t="n">
-        <v>33.27411225333406</v>
+        <v>349.9569581106683</v>
       </c>
       <c r="F22" t="n">
-        <v>33.27411225333406</v>
+        <v>349.9569581106683</v>
       </c>
       <c r="G22" t="n">
-        <v>33.27411225333406</v>
+        <v>181.5424518721307</v>
       </c>
       <c r="H22" t="n">
-        <v>33.27411225333406</v>
+        <v>28.99787525576255</v>
       </c>
       <c r="I22" t="n">
-        <v>33.27411225333406</v>
+        <v>28.99787525576255</v>
       </c>
       <c r="J22" t="n">
-        <v>28.99787525576259</v>
+        <v>28.99787525576255</v>
       </c>
       <c r="K22" t="n">
         <v>151.9473816770443</v>
@@ -5932,28 +5932,28 @@
         <v>1202.487986282109</v>
       </c>
       <c r="R22" t="n">
-        <v>1202.487986282109</v>
+        <v>1080.658275338122</v>
       </c>
       <c r="S22" t="n">
-        <v>1143.299934296948</v>
+        <v>1080.658275338122</v>
       </c>
       <c r="T22" t="n">
-        <v>1142.318743299348</v>
+        <v>1079.677084340522</v>
       </c>
       <c r="U22" t="n">
-        <v>1077.003252681056</v>
+        <v>1014.36159372223</v>
       </c>
       <c r="V22" t="n">
-        <v>1046.144959073776</v>
+        <v>983.5033001149493</v>
       </c>
       <c r="W22" t="n">
-        <v>756.7277890368151</v>
+        <v>917.9123246765948</v>
       </c>
       <c r="X22" t="n">
-        <v>752.564432737404</v>
+        <v>752.3980020844381</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.7718535938739</v>
+        <v>531.6054229409079</v>
       </c>
     </row>
     <row r="23">
@@ -5963,64 +5963,64 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>945.3374924679589</v>
+        <v>945.3374924679595</v>
       </c>
       <c r="C23" t="n">
-        <v>800.2011701261533</v>
+        <v>800.2011701261539</v>
       </c>
       <c r="D23" t="n">
-        <v>665.761666118009</v>
+        <v>665.7616661180095</v>
       </c>
       <c r="E23" t="n">
-        <v>503.7996081183709</v>
+        <v>503.7996081183715</v>
       </c>
       <c r="F23" t="n">
-        <v>316.6398979273695</v>
+        <v>316.6398979273702</v>
       </c>
       <c r="G23" t="n">
         <v>123.8070970476776</v>
       </c>
       <c r="H23" t="n">
-        <v>33.80148396286093</v>
+        <v>33.80148396286096</v>
       </c>
       <c r="I23" t="n">
-        <v>33.80148396286093</v>
+        <v>33.80148396286096</v>
       </c>
       <c r="J23" t="n">
-        <v>90.7042192064641</v>
+        <v>90.70421920646413</v>
       </c>
       <c r="K23" t="n">
-        <v>249.456449967208</v>
+        <v>226.7251870701789</v>
       </c>
       <c r="L23" t="n">
-        <v>667.749814007612</v>
+        <v>432.372987359793</v>
       </c>
       <c r="M23" t="n">
-        <v>928.2420533629263</v>
+        <v>692.8652267151073</v>
       </c>
       <c r="N23" t="n">
-        <v>1197.563137866094</v>
+        <v>962.1863112182751</v>
       </c>
       <c r="O23" t="n">
-        <v>1438.540139668162</v>
+        <v>1203.163313020343</v>
       </c>
       <c r="P23" t="n">
-        <v>1609.707434647295</v>
+        <v>1374.330607999476</v>
       </c>
       <c r="Q23" t="n">
-        <v>1690.074198143046</v>
+        <v>1664.889212248533</v>
       </c>
       <c r="R23" t="n">
-        <v>1690.074198143046</v>
+        <v>1690.074198143048</v>
       </c>
       <c r="S23" t="n">
-        <v>1690.074198143046</v>
+        <v>1690.074198143048</v>
       </c>
       <c r="T23" t="n">
-        <v>1690.074198143046</v>
+        <v>1690.074198143048</v>
       </c>
       <c r="U23" t="n">
-        <v>1660.242992389626</v>
+        <v>1660.242992389627</v>
       </c>
       <c r="V23" t="n">
         <v>1553.006299644662</v>
@@ -6029,7 +6029,7 @@
         <v>1424.063838973154</v>
       </c>
       <c r="X23" t="n">
-        <v>1274.42427531068</v>
+        <v>1274.424275310681</v>
       </c>
       <c r="Y23" t="n">
         <v>1108.111137933475</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>700.9668719555028</v>
+        <v>577.8855804466473</v>
       </c>
       <c r="C24" t="n">
-        <v>526.5138426743758</v>
+        <v>577.8855804466473</v>
       </c>
       <c r="D24" t="n">
-        <v>377.5794330131245</v>
+        <v>428.9511707853961</v>
       </c>
       <c r="E24" t="n">
-        <v>218.341978007669</v>
+        <v>269.7137157799406</v>
       </c>
       <c r="F24" t="n">
-        <v>71.80742003455399</v>
+        <v>269.7137157799406</v>
       </c>
       <c r="G24" t="n">
-        <v>71.80742003455399</v>
+        <v>132.5017390275526</v>
       </c>
       <c r="H24" t="n">
-        <v>71.80742003455399</v>
+        <v>33.80148396286096</v>
       </c>
       <c r="I24" t="n">
-        <v>33.80148396286093</v>
+        <v>33.80148396286096</v>
       </c>
       <c r="J24" t="n">
-        <v>48.87451629419641</v>
+        <v>48.87451629419645</v>
       </c>
       <c r="K24" t="n">
-        <v>152.7915540706403</v>
+        <v>414.6121387130931</v>
       </c>
       <c r="L24" t="n">
-        <v>338.8433766752026</v>
+        <v>600.6639613176554</v>
       </c>
       <c r="M24" t="n">
-        <v>589.036797310443</v>
+        <v>837.1345309719052</v>
       </c>
       <c r="N24" t="n">
-        <v>1007.330161350847</v>
+        <v>1094.27241788051</v>
       </c>
       <c r="O24" t="n">
-        <v>1220.341296709686</v>
+        <v>1487.007511474482</v>
       </c>
       <c r="P24" t="n">
-        <v>1638.63466075009</v>
+        <v>1638.634660750092</v>
       </c>
       <c r="Q24" t="n">
-        <v>1690.074198143046</v>
+        <v>1690.074198143048</v>
       </c>
       <c r="R24" t="n">
-        <v>1683.206518264748</v>
+        <v>1683.20651826475</v>
       </c>
       <c r="S24" t="n">
-        <v>1554.654777718124</v>
+        <v>1538.001121506033</v>
       </c>
       <c r="T24" t="n">
-        <v>1554.654777718124</v>
+        <v>1538.001121506033</v>
       </c>
       <c r="U24" t="n">
-        <v>1550.357278307396</v>
+        <v>1309.877427496698</v>
       </c>
       <c r="V24" t="n">
-        <v>1539.031364674259</v>
+        <v>1247.734736145336</v>
       </c>
       <c r="W24" t="n">
-        <v>1284.794007946057</v>
+        <v>993.497379417134</v>
       </c>
       <c r="X24" t="n">
-        <v>1076.942507740525</v>
+        <v>785.6458792116011</v>
       </c>
       <c r="Y24" t="n">
-        <v>869.1822089755708</v>
+        <v>577.8855804466473</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>292.2853385119058</v>
+        <v>190.6222975768006</v>
       </c>
       <c r="C25" t="n">
-        <v>292.2853385119058</v>
+        <v>190.6222975768006</v>
       </c>
       <c r="D25" t="n">
-        <v>142.1686990995701</v>
+        <v>190.6222975768006</v>
       </c>
       <c r="E25" t="n">
-        <v>142.1686990995701</v>
+        <v>190.6222975768006</v>
       </c>
       <c r="F25" t="n">
-        <v>142.1686990995701</v>
+        <v>190.6222975768006</v>
       </c>
       <c r="G25" t="n">
-        <v>38.07772096043239</v>
+        <v>190.6222975768006</v>
       </c>
       <c r="H25" t="n">
-        <v>38.07772096043239</v>
+        <v>38.07772096043243</v>
       </c>
       <c r="I25" t="n">
-        <v>38.07772096043239</v>
+        <v>38.07772096043243</v>
       </c>
       <c r="J25" t="n">
-        <v>33.80148396286093</v>
+        <v>33.80148396286096</v>
       </c>
       <c r="K25" t="n">
         <v>156.7509903841427</v>
       </c>
       <c r="L25" t="n">
-        <v>369.6104631728357</v>
+        <v>369.6104631728358</v>
       </c>
       <c r="M25" t="n">
         <v>604.4300552226731</v>
@@ -6169,28 +6169,28 @@
         <v>1207.291594989207</v>
       </c>
       <c r="R25" t="n">
-        <v>1085.46188404522</v>
+        <v>1207.291594989207</v>
       </c>
       <c r="S25" t="n">
-        <v>1085.46188404522</v>
+        <v>1003.203250374099</v>
       </c>
       <c r="T25" t="n">
-        <v>1084.48069304762</v>
+        <v>1002.222059376499</v>
       </c>
       <c r="U25" t="n">
-        <v>795.339007830722</v>
+        <v>713.0803741596015</v>
       </c>
       <c r="V25" t="n">
-        <v>764.4807142234413</v>
+        <v>481.1692084580964</v>
       </c>
       <c r="W25" t="n">
-        <v>698.8897387850868</v>
+        <v>415.5782330197419</v>
       </c>
       <c r="X25" t="n">
-        <v>694.7263824856757</v>
+        <v>411.4148767203307</v>
       </c>
       <c r="Y25" t="n">
-        <v>473.9338033421456</v>
+        <v>190.6222975768006</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1873.862981641646</v>
+        <v>1873.862981641647</v>
       </c>
       <c r="C26" t="n">
         <v>1584.538852590344</v>
@@ -6209,16 +6209,16 @@
         <v>1305.911541872702</v>
       </c>
       <c r="E26" t="n">
-        <v>999.7616771635667</v>
+        <v>999.7616771635664</v>
       </c>
       <c r="F26" t="n">
-        <v>668.414160263068</v>
+        <v>668.4141602630676</v>
       </c>
       <c r="G26" t="n">
-        <v>331.3935526738787</v>
+        <v>331.3935526738783</v>
       </c>
       <c r="H26" t="n">
-        <v>97.20013287956421</v>
+        <v>97.20013287956418</v>
       </c>
       <c r="I26" t="n">
         <v>73.67633343182963</v>
@@ -6230,16 +6230,16 @@
         <v>754.9096440049536</v>
       </c>
       <c r="L26" t="n">
-        <v>1374.042046699514</v>
+        <v>960.5574442945677</v>
       </c>
       <c r="M26" t="n">
-        <v>2079.552684212732</v>
+        <v>1666.068081807786</v>
       </c>
       <c r="N26" t="n">
-        <v>2781.847223883764</v>
+        <v>2259.14212498416</v>
       </c>
       <c r="O26" t="n">
-        <v>3195.692027326114</v>
+        <v>2877.111306236346</v>
       </c>
       <c r="P26" t="n">
         <v>3366.859322305247</v>
@@ -6303,25 +6303,25 @@
         <v>73.67633343182963</v>
       </c>
       <c r="J27" t="n">
-        <v>213.5794907501699</v>
+        <v>88.74936576316512</v>
       </c>
       <c r="K27" t="n">
-        <v>579.3171131690666</v>
+        <v>454.4869881820619</v>
       </c>
       <c r="L27" t="n">
-        <v>1132.500877624053</v>
+        <v>640.5388107866241</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.761528752947</v>
+        <v>1338.057393553374</v>
       </c>
       <c r="N27" t="n">
-        <v>1686.899415661552</v>
+        <v>2069.744231062096</v>
       </c>
       <c r="O27" t="n">
-        <v>1899.910551020391</v>
+        <v>2423.16520683242</v>
       </c>
       <c r="P27" t="n">
-        <v>2366.815841249539</v>
+        <v>2574.79235610803</v>
       </c>
       <c r="Q27" t="n">
         <v>2626.231893500986</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>569.7500878529249</v>
+        <v>569.7500878529247</v>
       </c>
       <c r="C28" t="n">
-        <v>480.4522928141268</v>
+        <v>480.4522928141266</v>
       </c>
       <c r="D28" t="n">
-        <v>409.9740412908998</v>
+        <v>409.9740412908996</v>
       </c>
       <c r="E28" t="n">
-        <v>341.6993355976154</v>
+        <v>341.6993355976152</v>
       </c>
       <c r="F28" t="n">
-        <v>274.4477759888138</v>
+        <v>274.4477759888136</v>
       </c>
       <c r="G28" t="n">
         <v>185.6716576393849</v>
@@ -6385,13 +6385,13 @@
         <v>147.5387775206253</v>
       </c>
       <c r="K28" t="n">
-        <v>348.5418679120224</v>
+        <v>348.5418679120225</v>
       </c>
       <c r="L28" t="n">
-        <v>639.4549246708309</v>
+        <v>639.454924670831</v>
       </c>
       <c r="M28" t="n">
-        <v>952.3281006907837</v>
+        <v>952.3281006907839</v>
       </c>
       <c r="N28" t="n">
         <v>1265.052408081239</v>
@@ -6412,22 +6412,22 @@
         <v>1700.762696556902</v>
       </c>
       <c r="T28" t="n">
-        <v>1555.593698849805</v>
+        <v>1555.593698849804</v>
       </c>
       <c r="U28" t="n">
         <v>1346.090401522016</v>
       </c>
       <c r="V28" t="n">
-        <v>1171.044301205238</v>
+        <v>1171.044301205237</v>
       </c>
       <c r="W28" t="n">
-        <v>961.265519057386</v>
+        <v>961.2655190573855</v>
       </c>
       <c r="X28" t="n">
-        <v>812.9143560484773</v>
+        <v>812.914356048477</v>
       </c>
       <c r="Y28" t="n">
-        <v>671.760164794056</v>
+        <v>671.7601647940556</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1873.862981641647</v>
+        <v>1873.862981641646</v>
       </c>
       <c r="C29" t="n">
         <v>1584.538852590344</v>
@@ -6446,7 +6446,7 @@
         <v>1305.911541872702</v>
       </c>
       <c r="E29" t="n">
-        <v>999.7616771635667</v>
+        <v>999.7616771635668</v>
       </c>
       <c r="F29" t="n">
         <v>668.414160263068</v>
@@ -6458,34 +6458,34 @@
         <v>97.20013287956417</v>
       </c>
       <c r="I29" t="n">
-        <v>73.67633343182962</v>
+        <v>73.6763334318296</v>
       </c>
       <c r="J29" t="n">
-        <v>297.9847176957859</v>
+        <v>297.9847176957858</v>
       </c>
       <c r="K29" t="n">
-        <v>754.9096440049539</v>
+        <v>754.9096440049536</v>
       </c>
       <c r="L29" t="n">
         <v>1374.042046699514</v>
       </c>
       <c r="M29" t="n">
-        <v>1634.534286054828</v>
+        <v>2079.552684212732</v>
       </c>
       <c r="N29" t="n">
-        <v>2285.540870021337</v>
+        <v>2781.847223883764</v>
       </c>
       <c r="O29" t="n">
-        <v>2903.510051273523</v>
+        <v>3022.824225685832</v>
       </c>
       <c r="P29" t="n">
-        <v>3393.258067342424</v>
+        <v>3366.859322305246</v>
       </c>
       <c r="Q29" t="n">
-        <v>3683.816671591481</v>
+        <v>3657.417926554303</v>
       </c>
       <c r="R29" t="n">
-        <v>3683.816671591481</v>
+        <v>3683.81667159148</v>
       </c>
       <c r="S29" t="n">
         <v>3617.010989453111</v>
@@ -6494,10 +6494,10 @@
         <v>3483.72652757372</v>
       </c>
       <c r="U29" t="n">
-        <v>3309.707515110802</v>
+        <v>3309.707515110801</v>
       </c>
       <c r="V29" t="n">
-        <v>3058.28301565634</v>
+        <v>3058.283015656339</v>
       </c>
       <c r="W29" t="n">
         <v>2785.152748275334</v>
@@ -6537,28 +6537,28 @@
         <v>111.6822695035227</v>
       </c>
       <c r="I30" t="n">
-        <v>73.67633343182962</v>
+        <v>73.6763334318296</v>
       </c>
       <c r="J30" t="n">
-        <v>213.5794907501699</v>
+        <v>213.5794907501698</v>
       </c>
       <c r="K30" t="n">
-        <v>579.3171131690667</v>
+        <v>579.3171131690665</v>
       </c>
       <c r="L30" t="n">
-        <v>1132.500877624054</v>
+        <v>1132.500877624053</v>
       </c>
       <c r="M30" t="n">
-        <v>1368.971447278304</v>
+        <v>1368.971447278303</v>
       </c>
       <c r="N30" t="n">
-        <v>1626.109334186908</v>
+        <v>2100.658284787025</v>
       </c>
       <c r="O30" t="n">
-        <v>1899.910551020391</v>
+        <v>2423.16520683242</v>
       </c>
       <c r="P30" t="n">
-        <v>2366.815841249539</v>
+        <v>2574.79235610803</v>
       </c>
       <c r="Q30" t="n">
         <v>2626.231893500986</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>569.7500878529252</v>
+        <v>569.7500878529243</v>
       </c>
       <c r="C31" t="n">
-        <v>480.4522928141269</v>
+        <v>480.4522928141261</v>
       </c>
       <c r="D31" t="n">
-        <v>409.9740412908999</v>
+        <v>409.9740412908992</v>
       </c>
       <c r="E31" t="n">
-        <v>341.6993355976155</v>
+        <v>341.6993355976148</v>
       </c>
       <c r="F31" t="n">
-        <v>274.4477759888139</v>
+        <v>274.4477759888132</v>
       </c>
       <c r="G31" t="n">
-        <v>185.671657639385</v>
+        <v>185.6716576393844</v>
       </c>
       <c r="H31" t="n">
-        <v>112.7654689121256</v>
+        <v>112.7654689121254</v>
       </c>
       <c r="I31" t="n">
-        <v>73.67633343182962</v>
+        <v>73.6763334318296</v>
       </c>
       <c r="J31" t="n">
-        <v>147.5387775206256</v>
+        <v>147.538777520625</v>
       </c>
       <c r="K31" t="n">
-        <v>348.5418679120228</v>
+        <v>348.5418679120221</v>
       </c>
       <c r="L31" t="n">
-        <v>639.4549246708314</v>
+        <v>639.4549246708307</v>
       </c>
       <c r="M31" t="n">
-        <v>952.3281006907843</v>
+        <v>952.3281006907835</v>
       </c>
       <c r="N31" t="n">
-        <v>1265.05240808124</v>
+        <v>1265.052408081239</v>
       </c>
       <c r="O31" t="n">
-        <v>1543.846092172783</v>
+        <v>1543.846092172782</v>
       </c>
       <c r="P31" t="n">
         <v>1770.146828491806</v>
       </c>
       <c r="Q31" t="n">
-        <v>1867.40397633778</v>
+        <v>1867.403976337779</v>
       </c>
       <c r="R31" t="n">
-        <v>1825.212653282902</v>
+        <v>1825.212653282901</v>
       </c>
       <c r="S31" t="n">
-        <v>1700.762696556903</v>
+        <v>1700.762696556902</v>
       </c>
       <c r="T31" t="n">
         <v>1555.593698849805</v>
@@ -6658,13 +6658,13 @@
         <v>1171.044301205238</v>
       </c>
       <c r="W31" t="n">
-        <v>961.2655190573862</v>
+        <v>961.2655190573857</v>
       </c>
       <c r="X31" t="n">
-        <v>812.9143560484774</v>
+        <v>812.914356048477</v>
       </c>
       <c r="Y31" t="n">
-        <v>671.7601647940562</v>
+        <v>671.7601647940552</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1873.862981641647</v>
+        <v>1873.862981641646</v>
       </c>
       <c r="C32" t="n">
-        <v>1584.538852590345</v>
+        <v>1584.538852590344</v>
       </c>
       <c r="D32" t="n">
-        <v>1305.911541872703</v>
+        <v>1305.911541872702</v>
       </c>
       <c r="E32" t="n">
-        <v>999.7616771635674</v>
+        <v>999.7616771635666</v>
       </c>
       <c r="F32" t="n">
-        <v>668.4141602630685</v>
+        <v>668.4141602630677</v>
       </c>
       <c r="G32" t="n">
-        <v>331.3935526738792</v>
+        <v>331.3935526738781</v>
       </c>
       <c r="H32" t="n">
-        <v>97.20013287956417</v>
+        <v>97.20013287956412</v>
       </c>
       <c r="I32" t="n">
-        <v>73.67633343182962</v>
+        <v>73.6763334318296</v>
       </c>
       <c r="J32" t="n">
         <v>297.9847176957858</v>
       </c>
       <c r="K32" t="n">
-        <v>468.7951308958322</v>
+        <v>434.0056855595006</v>
       </c>
       <c r="L32" t="n">
-        <v>1087.927533590392</v>
+        <v>1053.138088254061</v>
       </c>
       <c r="M32" t="n">
-        <v>1793.438171103611</v>
+        <v>1758.648725767279</v>
       </c>
       <c r="N32" t="n">
-        <v>2495.732710774643</v>
+        <v>2460.943265438311</v>
       </c>
       <c r="O32" t="n">
-        <v>3113.701892026829</v>
+        <v>3078.912446690497</v>
       </c>
       <c r="P32" t="n">
-        <v>3603.449908095729</v>
+        <v>3568.660462759398</v>
       </c>
       <c r="Q32" t="n">
-        <v>3683.816671591481</v>
+        <v>3657.417926554303</v>
       </c>
       <c r="R32" t="n">
-        <v>3683.816671591481</v>
+        <v>3683.81667159148</v>
       </c>
       <c r="S32" t="n">
         <v>3617.010989453111</v>
@@ -6731,10 +6731,10 @@
         <v>3483.72652757372</v>
       </c>
       <c r="U32" t="n">
-        <v>3309.707515110802</v>
+        <v>3309.707515110801</v>
       </c>
       <c r="V32" t="n">
-        <v>3058.28301565634</v>
+        <v>3058.283015656339</v>
       </c>
       <c r="W32" t="n">
         <v>2785.152748275334</v>
@@ -6743,7 +6743,7 @@
         <v>2491.325377903363</v>
       </c>
       <c r="Y32" t="n">
-        <v>2180.824433816661</v>
+        <v>2180.82443381666</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>111.6822695035227</v>
       </c>
       <c r="I33" t="n">
-        <v>73.67633343182962</v>
+        <v>73.6763334318296</v>
       </c>
       <c r="J33" t="n">
-        <v>213.5794907501699</v>
+        <v>213.5794907501698</v>
       </c>
       <c r="K33" t="n">
-        <v>579.3171131690666</v>
+        <v>317.4965285266138</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3689357736289</v>
+        <v>503.5483511311761</v>
       </c>
       <c r="M33" t="n">
-        <v>1001.839505427879</v>
+        <v>1201.066933897926</v>
       </c>
       <c r="N33" t="n">
-        <v>1686.899415661552</v>
+        <v>1932.753771406648</v>
       </c>
       <c r="O33" t="n">
-        <v>1899.910551020391</v>
+        <v>2423.16520683242</v>
       </c>
       <c r="P33" t="n">
-        <v>2366.815841249539</v>
+        <v>2574.79235610803</v>
       </c>
       <c r="Q33" t="n">
         <v>2626.231893500986</v>
@@ -6835,10 +6835,10 @@
         <v>569.7500878529247</v>
       </c>
       <c r="C34" t="n">
-        <v>480.4522928141266</v>
+        <v>480.4522928141265</v>
       </c>
       <c r="D34" t="n">
-        <v>409.9740412908996</v>
+        <v>409.9740412908995</v>
       </c>
       <c r="E34" t="n">
         <v>341.6993355976152</v>
@@ -6847,16 +6847,16 @@
         <v>274.4477759888136</v>
       </c>
       <c r="G34" t="n">
-        <v>185.6716576393849</v>
+        <v>185.6716576393848</v>
       </c>
       <c r="H34" t="n">
-        <v>112.7654689121255</v>
+        <v>112.7654689121254</v>
       </c>
       <c r="I34" t="n">
-        <v>73.67633343182962</v>
+        <v>73.6763334318296</v>
       </c>
       <c r="J34" t="n">
-        <v>147.5387775206253</v>
+        <v>147.5387775206247</v>
       </c>
       <c r="K34" t="n">
         <v>348.541867912022</v>
@@ -6917,16 +6917,16 @@
         <v>1020.260867907515</v>
       </c>
       <c r="D35" t="n">
-        <v>843.9848191857395</v>
+        <v>843.9848191857396</v>
       </c>
       <c r="E35" t="n">
-        <v>640.1862164724703</v>
+        <v>640.1862164724704</v>
       </c>
       <c r="F35" t="n">
-        <v>411.1899615678377</v>
+        <v>411.1899615678378</v>
       </c>
       <c r="G35" t="n">
-        <v>176.5206159745148</v>
+        <v>176.5206159745149</v>
       </c>
       <c r="H35" t="n">
         <v>44.67845817606703</v>
@@ -6938,19 +6938,19 @@
         <v>101.5811934196702</v>
       </c>
       <c r="K35" t="n">
-        <v>477.1781625352295</v>
+        <v>237.602161283385</v>
       </c>
       <c r="L35" t="n">
-        <v>682.8259628248436</v>
+        <v>689.4877657878499</v>
       </c>
       <c r="M35" t="n">
-        <v>943.3182021801579</v>
+        <v>949.9800051431641</v>
       </c>
       <c r="N35" t="n">
-        <v>1212.639286683326</v>
+        <v>1219.301089646332</v>
       </c>
       <c r="O35" t="n">
-        <v>1453.616288485394</v>
+        <v>1772.197009575162</v>
       </c>
       <c r="P35" t="n">
         <v>1943.364304554294</v>
@@ -6980,7 +6980,7 @@
         <v>1619.993607232935</v>
       </c>
       <c r="Y35" t="n">
-        <v>1411.843925142098</v>
+        <v>1411.843925142099</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>811.0498868494038</v>
+        <v>788.518622980333</v>
       </c>
       <c r="C36" t="n">
-        <v>636.5968575682768</v>
+        <v>614.065593699206</v>
       </c>
       <c r="D36" t="n">
-        <v>487.6624479070256</v>
+        <v>465.1311840379548</v>
       </c>
       <c r="E36" t="n">
-        <v>328.4249929015701</v>
+        <v>465.1311840379548</v>
       </c>
       <c r="F36" t="n">
-        <v>181.8904349284551</v>
+        <v>318.5966260648397</v>
       </c>
       <c r="G36" t="n">
-        <v>44.67845817606703</v>
+        <v>181.3846493124517</v>
       </c>
       <c r="H36" t="n">
-        <v>44.67845817606703</v>
+        <v>82.68439424776008</v>
       </c>
       <c r="I36" t="n">
         <v>44.67845817606703</v>
       </c>
       <c r="J36" t="n">
-        <v>184.5816154944073</v>
+        <v>136.8043675994176</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4986532708512</v>
+        <v>502.5419900183143</v>
       </c>
       <c r="L36" t="n">
-        <v>841.3945731996807</v>
+        <v>688.5938126228766</v>
       </c>
       <c r="M36" t="n">
-        <v>1077.865142853931</v>
+        <v>925.0643822771264</v>
       </c>
       <c r="N36" t="n">
-        <v>1609.868571917456</v>
+        <v>1477.960302205956</v>
       </c>
       <c r="O36" t="n">
-        <v>1822.879707276295</v>
+        <v>2030.856222134786</v>
       </c>
       <c r="P36" t="n">
-        <v>1974.506856551905</v>
+        <v>2182.483371410396</v>
       </c>
       <c r="Q36" t="n">
         <v>2233.922908803352</v>
@@ -7044,22 +7044,22 @@
         <v>2227.055228925054</v>
       </c>
       <c r="T36" t="n">
-        <v>2112.390181809238</v>
+        <v>2030.990660262468</v>
       </c>
       <c r="U36" t="n">
-        <v>1884.266487799903</v>
+        <v>1802.866966253133</v>
       </c>
       <c r="V36" t="n">
-        <v>1649.11437956816</v>
+        <v>1567.71485802139</v>
       </c>
       <c r="W36" t="n">
-        <v>1394.877022839958</v>
+        <v>1313.477501293189</v>
       </c>
       <c r="X36" t="n">
-        <v>1187.025522634426</v>
+        <v>1105.626001087656</v>
       </c>
       <c r="Y36" t="n">
-        <v>979.2652238694718</v>
+        <v>956.7339600004011</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>765.1464756520505</v>
+        <v>235.5471500844419</v>
       </c>
       <c r="C37" t="n">
-        <v>765.1464756520505</v>
+        <v>194.7950975884028</v>
       </c>
       <c r="D37" t="n">
-        <v>615.0298362397148</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="E37" t="n">
-        <v>467.1167426573217</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="F37" t="n">
-        <v>320.2267951594113</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="G37" t="n">
-        <v>320.2267951594113</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="H37" t="n">
-        <v>167.6822185430431</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I37" t="n">
-        <v>48.9546951736385</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J37" t="n">
         <v>44.67845817606703</v>
@@ -7132,13 +7132,13 @@
         <v>973.4052651082147</v>
       </c>
       <c r="W37" t="n">
-        <v>865.9777449562291</v>
+        <v>683.9880950712541</v>
       </c>
       <c r="X37" t="n">
-        <v>819.9778439431868</v>
+        <v>455.9985441732367</v>
       </c>
       <c r="Y37" t="n">
-        <v>765.1464756520505</v>
+        <v>417.1956149146816</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1207.233734962953</v>
+        <v>1207.233734962952</v>
       </c>
       <c r="C38" t="n">
-        <v>1020.260867907516</v>
+        <v>1020.260867907515</v>
       </c>
       <c r="D38" t="n">
-        <v>843.9848191857404</v>
+        <v>843.9848191857393</v>
       </c>
       <c r="E38" t="n">
-        <v>640.1862164724712</v>
+        <v>640.1862164724703</v>
       </c>
       <c r="F38" t="n">
-        <v>411.1899615678386</v>
+        <v>411.1899615678378</v>
       </c>
       <c r="G38" t="n">
         <v>176.5206159745148</v>
       </c>
       <c r="H38" t="n">
-        <v>44.67845817606705</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I38" t="n">
-        <v>44.67845817606705</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J38" t="n">
-        <v>101.5811934196702</v>
+        <v>268.9868424400232</v>
       </c>
       <c r="K38" t="n">
-        <v>237.602161283385</v>
+        <v>405.007810303738</v>
       </c>
       <c r="L38" t="n">
-        <v>443.2499615729992</v>
+        <v>610.6556105933521</v>
       </c>
       <c r="M38" t="n">
-        <v>703.7422009283134</v>
+        <v>1163.551530522182</v>
       </c>
       <c r="N38" t="n">
-        <v>973.0632854314813</v>
+        <v>1504.821262735916</v>
       </c>
       <c r="O38" t="n">
-        <v>1427.217543448217</v>
+        <v>1745.798264537984</v>
       </c>
       <c r="P38" t="n">
-        <v>1916.965559517118</v>
+        <v>1916.965559517117</v>
       </c>
       <c r="Q38" t="n">
-        <v>2207.524163766175</v>
+        <v>2207.524163766174</v>
       </c>
       <c r="R38" t="n">
         <v>2233.922908803352</v>
@@ -7202,22 +7202,22 @@
         <v>2233.922908803352</v>
       </c>
       <c r="T38" t="n">
-        <v>2202.989708919828</v>
+        <v>2202.989708919827</v>
       </c>
       <c r="U38" t="n">
-        <v>2131.321958452776</v>
+        <v>2131.321958452775</v>
       </c>
       <c r="V38" t="n">
-        <v>1982.24872099418</v>
+        <v>1982.248720994179</v>
       </c>
       <c r="W38" t="n">
-        <v>1811.469715609041</v>
+        <v>1811.46971560904</v>
       </c>
       <c r="X38" t="n">
-        <v>1619.993607232936</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y38" t="n">
-        <v>1411.843925142099</v>
+        <v>1411.843925142098</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>947.7560779857885</v>
+        <v>759.5279854422834</v>
       </c>
       <c r="C39" t="n">
-        <v>773.3030487046615</v>
+        <v>585.0749561611564</v>
       </c>
       <c r="D39" t="n">
-        <v>624.3686390434102</v>
+        <v>477.8340810702952</v>
       </c>
       <c r="E39" t="n">
-        <v>465.1311840379548</v>
+        <v>318.5966260648397</v>
       </c>
       <c r="F39" t="n">
         <v>318.5966260648397</v>
@@ -7245,58 +7245,58 @@
         <v>181.3846493124517</v>
       </c>
       <c r="H39" t="n">
-        <v>82.6843942477601</v>
+        <v>82.68439424776008</v>
       </c>
       <c r="I39" t="n">
-        <v>44.67845817606705</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J39" t="n">
         <v>184.5816154944073</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4986532708512</v>
+        <v>550.3192379133041</v>
       </c>
       <c r="L39" t="n">
-        <v>474.5504758754136</v>
+        <v>736.3710605178663</v>
       </c>
       <c r="M39" t="n">
-        <v>711.0210455296633</v>
+        <v>1264.949166847117</v>
       </c>
       <c r="N39" t="n">
-        <v>968.1589324382679</v>
+        <v>1817.845086775946</v>
       </c>
       <c r="O39" t="n">
-        <v>1521.054852367098</v>
+        <v>2030.856222134786</v>
       </c>
       <c r="P39" t="n">
-        <v>1987.960142596246</v>
+        <v>2182.483371410396</v>
       </c>
       <c r="Q39" t="n">
         <v>2233.922908803352</v>
       </c>
       <c r="R39" t="n">
-        <v>2227.055228925054</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="S39" t="n">
-        <v>2227.055228925054</v>
+        <v>2088.717512044635</v>
       </c>
       <c r="T39" t="n">
-        <v>2212.980310147443</v>
+        <v>1892.652943382049</v>
       </c>
       <c r="U39" t="n">
-        <v>2020.972678936287</v>
+        <v>1664.529249372714</v>
       </c>
       <c r="V39" t="n">
-        <v>1785.820570704545</v>
+        <v>1429.377141140972</v>
       </c>
       <c r="W39" t="n">
-        <v>1531.583213976343</v>
+        <v>1175.13978441277</v>
       </c>
       <c r="X39" t="n">
-        <v>1323.73171377081</v>
+        <v>967.2882842072372</v>
       </c>
       <c r="Y39" t="n">
-        <v>1115.971415005856</v>
+        <v>759.5279854422834</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>662.8105585941846</v>
+        <v>235.5471500844421</v>
       </c>
       <c r="C40" t="n">
-        <v>493.8743756662777</v>
+        <v>235.5471500844421</v>
       </c>
       <c r="D40" t="n">
-        <v>343.757736253942</v>
+        <v>235.5471500844421</v>
       </c>
       <c r="E40" t="n">
         <v>195.8446426715489</v>
       </c>
       <c r="F40" t="n">
-        <v>48.95469517363851</v>
+        <v>48.9546951736385</v>
       </c>
       <c r="G40" t="n">
-        <v>48.95469517363851</v>
+        <v>48.9546951736385</v>
       </c>
       <c r="H40" t="n">
-        <v>48.95469517363851</v>
+        <v>48.9546951736385</v>
       </c>
       <c r="I40" t="n">
-        <v>48.95469517363851</v>
+        <v>48.9546951736385</v>
       </c>
       <c r="J40" t="n">
-        <v>44.67845817606705</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="K40" t="n">
         <v>167.6279645973488</v>
@@ -7363,19 +7363,19 @@
         <v>1153.252138761049</v>
       </c>
       <c r="U40" t="n">
-        <v>1046.100103429127</v>
+        <v>864.1104535441516</v>
       </c>
       <c r="V40" t="n">
-        <v>973.4052651082147</v>
+        <v>791.4156152232398</v>
       </c>
       <c r="W40" t="n">
-        <v>865.9777449562291</v>
+        <v>501.9984451862792</v>
       </c>
       <c r="X40" t="n">
-        <v>819.9778439431868</v>
+        <v>455.9985441732369</v>
       </c>
       <c r="Y40" t="n">
-        <v>781.1749146846317</v>
+        <v>417.1956149146818</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>1020.260867907515</v>
       </c>
       <c r="D41" t="n">
-        <v>843.9848191857398</v>
+        <v>843.9848191857395</v>
       </c>
       <c r="E41" t="n">
-        <v>640.1862164724705</v>
+        <v>640.1862164724703</v>
       </c>
       <c r="F41" t="n">
-        <v>411.189961567838</v>
+        <v>411.1899615678378</v>
       </c>
       <c r="G41" t="n">
         <v>176.5206159745148</v>
       </c>
       <c r="H41" t="n">
-        <v>44.67845817606705</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I41" t="n">
-        <v>44.67845817606705</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J41" t="n">
-        <v>268.9868424400233</v>
+        <v>101.5811934196702</v>
       </c>
       <c r="K41" t="n">
-        <v>476.956458014305</v>
+        <v>237.602161283385</v>
       </c>
       <c r="L41" t="n">
-        <v>682.6042583039191</v>
+        <v>790.4980812122145</v>
       </c>
       <c r="M41" t="n">
-        <v>1235.500178232749</v>
+        <v>1343.394001141044</v>
       </c>
       <c r="N41" t="n">
-        <v>1504.821262735917</v>
+        <v>1612.715085644212</v>
       </c>
       <c r="O41" t="n">
-        <v>1745.798264537985</v>
+        <v>1853.69208744628</v>
       </c>
       <c r="P41" t="n">
-        <v>1916.965559517118</v>
+        <v>2024.859382425413</v>
       </c>
       <c r="Q41" t="n">
-        <v>2207.524163766175</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="R41" t="n">
         <v>2233.922908803352</v>
@@ -7439,22 +7439,22 @@
         <v>2233.922908803352</v>
       </c>
       <c r="T41" t="n">
-        <v>2202.989708919828</v>
+        <v>2202.989708919827</v>
       </c>
       <c r="U41" t="n">
         <v>2131.321958452775</v>
       </c>
       <c r="V41" t="n">
-        <v>1982.24872099418</v>
+        <v>1982.248720994179</v>
       </c>
       <c r="W41" t="n">
         <v>1811.46971560904</v>
       </c>
       <c r="X41" t="n">
-        <v>1619.993607232936</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y41" t="n">
-        <v>1411.843925142099</v>
+        <v>1411.843925142098</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>947.7560779857885</v>
+        <v>934.6499554489603</v>
       </c>
       <c r="C42" t="n">
         <v>773.3030487046615</v>
@@ -7482,31 +7482,31 @@
         <v>181.3846493124517</v>
       </c>
       <c r="H42" t="n">
-        <v>82.6843942477601</v>
+        <v>82.68439424776008</v>
       </c>
       <c r="I42" t="n">
-        <v>44.67845817606705</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J42" t="n">
-        <v>184.5816154944073</v>
+        <v>59.75149050740252</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4986532708512</v>
+        <v>163.6685282838465</v>
       </c>
       <c r="L42" t="n">
-        <v>841.394573199681</v>
+        <v>716.5644482126761</v>
       </c>
       <c r="M42" t="n">
-        <v>1077.865142853931</v>
+        <v>1220.822415297351</v>
       </c>
       <c r="N42" t="n">
-        <v>1335.003029762535</v>
+        <v>1477.960302205956</v>
       </c>
       <c r="O42" t="n">
-        <v>1548.014165121375</v>
+        <v>2030.856222134786</v>
       </c>
       <c r="P42" t="n">
-        <v>2014.919455350523</v>
+        <v>2182.483371410396</v>
       </c>
       <c r="Q42" t="n">
         <v>2233.922908803352</v>
@@ -7515,25 +7515,25 @@
         <v>2227.055228925054</v>
       </c>
       <c r="S42" t="n">
-        <v>2227.055228925054</v>
+        <v>2081.849832166337</v>
       </c>
       <c r="T42" t="n">
-        <v>2212.980310147443</v>
+        <v>1885.785263503751</v>
       </c>
       <c r="U42" t="n">
-        <v>2020.972678936287</v>
+        <v>1657.661569494416</v>
       </c>
       <c r="V42" t="n">
-        <v>1785.820570704545</v>
+        <v>1422.509461262674</v>
       </c>
       <c r="W42" t="n">
-        <v>1531.583213976343</v>
+        <v>1350.261754419447</v>
       </c>
       <c r="X42" t="n">
-        <v>1323.73171377081</v>
+        <v>1142.410254213914</v>
       </c>
       <c r="Y42" t="n">
-        <v>1115.971415005856</v>
+        <v>934.6499554489603</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>339.4814992563705</v>
+        <v>332.3421644733785</v>
       </c>
       <c r="C43" t="n">
-        <v>339.4814992563705</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="D43" t="n">
-        <v>339.4814992563705</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="E43" t="n">
-        <v>191.5684056739774</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="F43" t="n">
-        <v>44.67845817606705</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="G43" t="n">
-        <v>44.67845817606705</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="H43" t="n">
-        <v>44.67845817606705</v>
+        <v>163.4059815454716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.67845817606705</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J43" t="n">
-        <v>44.67845817606705</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="K43" t="n">
         <v>167.6279645973488</v>
@@ -7591,28 +7591,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R43" t="n">
-        <v>1140.454453544102</v>
+        <v>1218.168569202413</v>
       </c>
       <c r="S43" t="n">
-        <v>1118.355758813969</v>
+        <v>1014.080224587306</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.538023102738</v>
+        <v>971.2624888760745</v>
       </c>
       <c r="U43" t="n">
-        <v>786.3963378858404</v>
+        <v>864.1104535441518</v>
       </c>
       <c r="V43" t="n">
-        <v>531.7118496799535</v>
+        <v>791.41561522324</v>
       </c>
       <c r="W43" t="n">
-        <v>424.2843295279679</v>
+        <v>598.7934595752156</v>
       </c>
       <c r="X43" t="n">
-        <v>378.2844285149256</v>
+        <v>552.7935585621733</v>
       </c>
       <c r="Y43" t="n">
-        <v>339.4814992563705</v>
+        <v>513.9906293036182</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1207.233734962951</v>
+        <v>1207.233734962952</v>
       </c>
       <c r="C44" t="n">
         <v>1020.260867907515</v>
       </c>
       <c r="D44" t="n">
-        <v>843.9848191857391</v>
+        <v>843.9848191857398</v>
       </c>
       <c r="E44" t="n">
-        <v>640.1862164724702</v>
+        <v>640.1862164724707</v>
       </c>
       <c r="F44" t="n">
-        <v>411.1899615678376</v>
+        <v>411.1899615678383</v>
       </c>
       <c r="G44" t="n">
         <v>176.5206159745148</v>
       </c>
       <c r="H44" t="n">
-        <v>44.67845817606702</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I44" t="n">
-        <v>44.67845817606702</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J44" t="n">
-        <v>268.9868424400232</v>
+        <v>101.5811934196702</v>
       </c>
       <c r="K44" t="n">
-        <v>405.007810303738</v>
+        <v>403.5734633419486</v>
       </c>
       <c r="L44" t="n">
-        <v>610.6556105933521</v>
+        <v>609.2212636315627</v>
       </c>
       <c r="M44" t="n">
-        <v>871.1478499486664</v>
+        <v>1162.117183560392</v>
       </c>
       <c r="N44" t="n">
-        <v>1424.043769877496</v>
+        <v>1715.013103489222</v>
       </c>
       <c r="O44" t="n">
-        <v>1665.020771679564</v>
+        <v>1955.99010529129</v>
       </c>
       <c r="P44" t="n">
-        <v>1943.364304554294</v>
+        <v>2127.157400270423</v>
       </c>
       <c r="Q44" t="n">
-        <v>2233.922908803351</v>
+        <v>2207.524163766174</v>
       </c>
       <c r="R44" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="S44" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="T44" t="n">
         <v>2202.989708919827</v>
       </c>
       <c r="U44" t="n">
-        <v>2131.321958452774</v>
+        <v>2131.321958452775</v>
       </c>
       <c r="V44" t="n">
-        <v>1982.248720994178</v>
+        <v>1982.248720994179</v>
       </c>
       <c r="W44" t="n">
-        <v>1811.469715609039</v>
+        <v>1811.46971560904</v>
       </c>
       <c r="X44" t="n">
-        <v>1619.993607232934</v>
+        <v>1619.993607232935</v>
       </c>
       <c r="Y44" t="n">
         <v>1411.843925142098</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>947.7560779857885</v>
+        <v>591.3126484222153</v>
       </c>
       <c r="C45" t="n">
-        <v>773.3030487046615</v>
+        <v>416.8596191410883</v>
       </c>
       <c r="D45" t="n">
-        <v>624.3686390434102</v>
+        <v>350.4504711546376</v>
       </c>
       <c r="E45" t="n">
-        <v>465.1311840379548</v>
+        <v>191.2130161491821</v>
       </c>
       <c r="F45" t="n">
-        <v>318.5966260648397</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="G45" t="n">
-        <v>181.3846493124517</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="H45" t="n">
-        <v>82.68439424776008</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I45" t="n">
-        <v>44.67845817606702</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J45" t="n">
         <v>184.5816154944073</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4986532708512</v>
+        <v>526.001424313725</v>
       </c>
       <c r="L45" t="n">
-        <v>841.3945731996807</v>
+        <v>712.0532469182873</v>
       </c>
       <c r="M45" t="n">
-        <v>1352.730685008851</v>
+        <v>1264.949166847117</v>
       </c>
       <c r="N45" t="n">
-        <v>1609.868571917455</v>
+        <v>1817.845086775946</v>
       </c>
       <c r="O45" t="n">
-        <v>1822.879707276295</v>
+        <v>2030.856222134786</v>
       </c>
       <c r="P45" t="n">
-        <v>1974.506856551905</v>
+        <v>2182.483371410396</v>
       </c>
       <c r="Q45" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="R45" t="n">
-        <v>2233.922908803351</v>
+        <v>2233.922908803352</v>
       </c>
       <c r="S45" t="n">
-        <v>2233.922908803351</v>
+        <v>2088.717512044635</v>
       </c>
       <c r="T45" t="n">
-        <v>2219.84799002574</v>
+        <v>1892.652943382049</v>
       </c>
       <c r="U45" t="n">
-        <v>2020.972678936287</v>
+        <v>1664.529249372714</v>
       </c>
       <c r="V45" t="n">
-        <v>1785.820570704545</v>
+        <v>1429.377141140972</v>
       </c>
       <c r="W45" t="n">
-        <v>1531.583213976343</v>
+        <v>1175.13978441277</v>
       </c>
       <c r="X45" t="n">
-        <v>1323.73171377081</v>
+        <v>967.2882842072372</v>
       </c>
       <c r="Y45" t="n">
-        <v>1115.971415005856</v>
+        <v>759.5279854422834</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.8908781015454</v>
+        <v>366.1592177203421</v>
       </c>
       <c r="C46" t="n">
-        <v>48.95469517363849</v>
+        <v>197.2230347924352</v>
       </c>
       <c r="D46" t="n">
-        <v>48.95469517363849</v>
+        <v>197.2230347924352</v>
       </c>
       <c r="E46" t="n">
-        <v>48.95469517363849</v>
+        <v>197.2230347924352</v>
       </c>
       <c r="F46" t="n">
-        <v>48.95469517363849</v>
+        <v>197.2230347924352</v>
       </c>
       <c r="G46" t="n">
-        <v>48.95469517363849</v>
+        <v>197.2230347924352</v>
       </c>
       <c r="H46" t="n">
-        <v>48.95469517363849</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="I46" t="n">
-        <v>48.95469517363849</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="J46" t="n">
-        <v>44.67845817606702</v>
+        <v>44.67845817606703</v>
       </c>
       <c r="K46" t="n">
         <v>167.6279645973488</v>
@@ -7828,28 +7828,28 @@
         <v>1218.168569202413</v>
       </c>
       <c r="R46" t="n">
-        <v>1218.168569202413</v>
+        <v>1167.132172008073</v>
       </c>
       <c r="S46" t="n">
-        <v>1178.754787544119</v>
+        <v>963.0438273929658</v>
       </c>
       <c r="T46" t="n">
-        <v>953.947401947913</v>
+        <v>920.2260916817346</v>
       </c>
       <c r="U46" t="n">
-        <v>846.7953666159904</v>
+        <v>813.0740563498119</v>
       </c>
       <c r="V46" t="n">
-        <v>774.1005282950784</v>
+        <v>740.3792180289001</v>
       </c>
       <c r="W46" t="n">
-        <v>666.6730081430928</v>
+        <v>632.9516978769145</v>
       </c>
       <c r="X46" t="n">
-        <v>438.6834572450755</v>
+        <v>586.9517968638722</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.8908781015454</v>
+        <v>366.1592177203421</v>
       </c>
     </row>
   </sheetData>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>84.6359389837904</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>123.6142794301133</v>
       </c>
       <c r="N12" t="n">
-        <v>82.15918307349489</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>82.15918307349463</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.15918307349531</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>208.2502184139034</v>
       </c>
       <c r="Q18" t="n">
-        <v>82.15918307349577</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-1.378452907374594e-12</v>
       </c>
       <c r="R20" t="n">
         <v>39.05102084553067</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>123.614279430113</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.15918307349577</v>
+        <v>84.63593898378988</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>22.96087161316078</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>214.7934987381715</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>39.05102084553067</v>
+        <v>64.49040053695992</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,22 +9717,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>13.86146563736423</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>162.7833102341408</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>181.5393517526595</v>
       </c>
       <c r="P24" t="n">
-        <v>269.3598128937312</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9878,19 +9878,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>327.023190578996</v>
       </c>
       <c r="O26" t="n">
-        <v>174.6139410507898</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>61.40412270166092</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>141.8281216277617</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,22 +10118,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>385.5409085488289</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>174.6139410507888</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>39.05102084553062</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>61.40412270166013</v>
+        <v>110.601804733894</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>35.14085387508248</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>8.475454847629948</v>
       </c>
       <c r="R32" t="n">
-        <v>39.05102084553067</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>432.2444680051199</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>280.2023232999314</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>241.995960860449</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>248.7250547624756</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,10 +10598,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>315.0696142694561</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>77.83118898183342</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.5495932568356</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>277.6419617726469</v>
+        <v>298.7454878992171</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>343.3179642121114</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,16 +10829,16 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>295.3572531045609</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>72.67540172784527</v>
       </c>
       <c r="O38" t="n">
-        <v>215.3305618329975</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>295.0581178535361</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>298.7454878992171</v>
       </c>
       <c r="O39" t="n">
-        <v>343.3179642121115</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>196.4881099132833</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>72.67540172784541</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>350.7556764032479</v>
       </c>
       <c r="M41" t="n">
         <v>295.3572531045609</v>
@@ -11078,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>129.9967301840274</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>39.05102084553067</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.5495932568357</v>
+        <v>370.5495932568356</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>270.4923206367932</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>343.3179642121114</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>169.2564808685589</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>167.647779857135</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>295.3572531045608</v>
       </c>
       <c r="N44" t="n">
-        <v>286.4392277026885</v>
+        <v>286.4392277026886</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>108.2588261571689</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.05102084553067</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>239.9017889321958</v>
       </c>
       <c r="L45" t="n">
-        <v>370.5495932568355</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>277.6419617726467</v>
+        <v>319.6215659339189</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>298.7454878992171</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>239.987913021078</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>92.15522188062697</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>211.9371129782805</v>
       </c>
       <c r="E11" t="n">
-        <v>239.1844414298592</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>264.130117099309</v>
       </c>
       <c r="G11" t="n">
         <v>269.7464768811125</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>167.9475609641861</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.233700684801462</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>68.04769262841216</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>185.0063298277324</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>18.21677330810402</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>226.9851720360665</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>243.4920100136511</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>222.526963128605</v>
+        <v>222.5269631286051</v>
       </c>
       <c r="D14" t="n">
-        <v>60.83565561378794</v>
+        <v>211.9371129782805</v>
       </c>
       <c r="E14" t="n">
-        <v>239.1844414298592</v>
+        <v>239.1844414298593</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>269.7464768811125</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>167.9475609641861</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>29.69104672901896</v>
       </c>
       <c r="U14" t="n">
         <v>108.3748977061044</v>
       </c>
       <c r="V14" t="n">
-        <v>185.0063298277324</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>206.4950400750105</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>226.9851720360665</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23732,13 +23732,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>143.6849591183875</v>
       </c>
       <c r="D17" t="n">
-        <v>72.68062096169923</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>160.3424374196417</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>89.33809926295439</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,16 +23969,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>143.6849591183875</v>
       </c>
       <c r="D20" t="n">
-        <v>126.8587325638263</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>89.33809926295498</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>106.1643258175148</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>143373.3592754818</v>
       </c>
       <c r="D2" t="n">
-        <v>143373.3592754818</v>
+        <v>143373.3592754817</v>
       </c>
       <c r="E2" t="n">
         <v>126278.0493237964</v>
@@ -26326,10 +26326,10 @@
         <v>126278.0493237964</v>
       </c>
       <c r="G2" t="n">
-        <v>140436.2985229976</v>
+        <v>140436.2985229975</v>
       </c>
       <c r="H2" t="n">
-        <v>140436.2985229976</v>
+        <v>140436.2985229975</v>
       </c>
       <c r="I2" t="n">
         <v>143682.3097262496</v>
@@ -26338,22 +26338,22 @@
         <v>143682.3097262497</v>
       </c>
       <c r="K2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="L2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="N2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="O2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="P2" t="n">
         <v>143682.3097262497</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262497</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262497</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26372,34 +26372,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>784058.3397149071</v>
+        <v>784058.3397149069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63073.60320817406</v>
+        <v>63073.60320817409</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15967.25538750371</v>
+        <v>15967.25538750394</v>
       </c>
       <c r="J3" t="n">
-        <v>130412.6889307356</v>
+        <v>130412.6889307355</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63073.60320817409</v>
+        <v>63073.60320817411</v>
       </c>
       <c r="M3" t="n">
-        <v>81062.19950072608</v>
+        <v>81062.19950072604</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>167950.8937375129</v>
+        <v>167950.8937375128</v>
       </c>
       <c r="F4" t="n">
         <v>167950.8937375128</v>
@@ -26433,7 +26433,7 @@
         <v>214128.3936837616</v>
       </c>
       <c r="H4" t="n">
-        <v>214128.3936837616</v>
+        <v>214128.3936837615</v>
       </c>
       <c r="I4" t="n">
         <v>223035.6392071029</v>
@@ -26457,7 +26457,7 @@
         <v>219232.2264290237</v>
       </c>
       <c r="P4" t="n">
-        <v>219232.2264290236</v>
+        <v>219232.2264290237</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26482,34 @@
         <v>49278.62047697519</v>
       </c>
       <c r="G5" t="n">
-        <v>55906.78891211019</v>
+        <v>55906.78891211018</v>
       </c>
       <c r="H5" t="n">
-        <v>55906.78891211019</v>
+        <v>55906.78891211016</v>
       </c>
       <c r="I5" t="n">
-        <v>59557.53152950492</v>
+        <v>59557.53152950495</v>
       </c>
       <c r="J5" t="n">
         <v>77861.909650883</v>
       </c>
       <c r="K5" t="n">
-        <v>77861.909650883</v>
+        <v>77861.90965088298</v>
       </c>
       <c r="L5" t="n">
-        <v>77861.909650883</v>
+        <v>77861.90965088298</v>
       </c>
       <c r="M5" t="n">
         <v>64342.0470187866</v>
       </c>
       <c r="N5" t="n">
-        <v>64342.04701878662</v>
+        <v>64342.04701878661</v>
       </c>
       <c r="O5" t="n">
-        <v>64342.04701878662</v>
+        <v>64342.04701878661</v>
       </c>
       <c r="P5" t="n">
-        <v>64342.0470187866</v>
+        <v>64342.04701878661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-342654.2312734834</v>
+        <v>-342658.6448513516</v>
       </c>
       <c r="C6" t="n">
-        <v>-342654.2312734834</v>
+        <v>-342658.6448513515</v>
       </c>
       <c r="D6" t="n">
-        <v>-342654.2312734834</v>
+        <v>-342658.6448513516</v>
       </c>
       <c r="E6" t="n">
-        <v>-875009.8046055988</v>
+        <v>-875258.4368970621</v>
       </c>
       <c r="F6" t="n">
-        <v>-90951.46489069167</v>
+        <v>-91200.09718215524</v>
       </c>
       <c r="G6" t="n">
-        <v>-192672.4872810483</v>
+        <v>-192718.8588696662</v>
       </c>
       <c r="H6" t="n">
-        <v>-129598.8840728742</v>
+        <v>-129645.255661492</v>
       </c>
       <c r="I6" t="n">
-        <v>-154878.1163978619</v>
+        <v>-154878.1163978622</v>
       </c>
       <c r="J6" t="n">
-        <v>-276500.9556759081</v>
+        <v>-276500.955675908</v>
       </c>
       <c r="K6" t="n">
-        <v>-146088.2667451724</v>
+        <v>-146088.2667451726</v>
       </c>
       <c r="L6" t="n">
         <v>-209161.8699533466</v>
       </c>
       <c r="M6" t="n">
-        <v>-220954.1632222867</v>
+        <v>-220954.1632222868</v>
       </c>
       <c r="N6" t="n">
-        <v>-139891.9637215606</v>
+        <v>-139891.9637215607</v>
       </c>
       <c r="O6" t="n">
-        <v>-139891.9637215606</v>
+        <v>-139891.9637215607</v>
       </c>
       <c r="P6" t="n">
-        <v>-139891.9637215606</v>
+        <v>-139891.9637215605</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>221.5879326526201</v>
       </c>
       <c r="J2" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="K2" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="M2" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="N2" t="n">
         <v>180.1697533861253</v>
@@ -26762,7 +26762,7 @@
         <v>699.0700829154814</v>
       </c>
       <c r="K3" t="n">
-        <v>699.0700829154815</v>
+        <v>699.0700829154813</v>
       </c>
       <c r="L3" t="n">
         <v>699.0700829154814</v>
@@ -26799,37 +26799,37 @@
         <v>362.4734406970323</v>
       </c>
       <c r="F4" t="n">
-        <v>362.4734406970323</v>
+        <v>362.4734406970322</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4734406970324</v>
+        <v>362.4734406970322</v>
       </c>
       <c r="H4" t="n">
-        <v>362.4734406970324</v>
+        <v>362.4734406970319</v>
       </c>
       <c r="I4" t="n">
-        <v>422.5185495357616</v>
+        <v>422.518549535762</v>
       </c>
       <c r="J4" t="n">
         <v>920.9541678978703</v>
       </c>
       <c r="K4" t="n">
-        <v>920.9541678978702</v>
+        <v>920.9541678978701</v>
       </c>
       <c r="L4" t="n">
-        <v>920.9541678978702</v>
+        <v>920.9541678978701</v>
       </c>
       <c r="M4" t="n">
         <v>558.4807272008379</v>
       </c>
       <c r="N4" t="n">
-        <v>558.480727200838</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="O4" t="n">
-        <v>558.480727200838</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="P4" t="n">
-        <v>558.4807272008378</v>
+        <v>558.4807272008379</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021761</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021761</v>
+        <v>78.84200401021764</v>
       </c>
       <c r="M2" t="n">
-        <v>101.3277493759076</v>
+        <v>101.3277493759075</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>362.4734406970323</v>
+        <v>362.4734406970322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.04510883872922</v>
+        <v>60.04510883873007</v>
       </c>
       <c r="J4" t="n">
-        <v>498.4356183621087</v>
+        <v>498.4356183621083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78.84200401021758</v>
+        <v>78.84200401021761</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>362.4734406970323</v>
+        <v>362.4734406970322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>142.7459286424025</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>142.7459286424025</v>
       </c>
       <c r="D12" t="n">
         <v>142.7459286424025</v>
@@ -28178,10 +28178,10 @@
         <v>142.7459286424025</v>
       </c>
       <c r="F12" t="n">
-        <v>142.7459286424025</v>
+        <v>121.1215753146046</v>
       </c>
       <c r="G12" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.027646972143</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28229,13 +28229,13 @@
         <v>142.7459286424025</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>142.7459286424025</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>142.7459286424025</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28260,7 +28260,7 @@
         <v>142.7459286424025</v>
       </c>
       <c r="G13" t="n">
-        <v>142.7459286424025</v>
+        <v>67.150343687605</v>
       </c>
       <c r="H13" t="n">
         <v>142.7459286424025</v>
@@ -28269,7 +28269,7 @@
         <v>117.5402481357105</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>120.611413834547</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7459286424025</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>142.7459286424025</v>
@@ -28305,13 +28305,13 @@
         <v>142.7459286424025</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>142.7459286424025</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>71.38381831519999</v>
+        <v>142.7459286424025</v>
       </c>
       <c r="Y13" t="n">
         <v>142.7459286424025</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>83.49569860362806</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>142.7459286424025</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>97.71325251404467</v>
       </c>
       <c r="I15" t="n">
         <v>37.62587671097612</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>128.5283747319866</v>
       </c>
       <c r="T15" t="n">
         <v>142.7459286424025</v>
@@ -28463,10 +28463,10 @@
         <v>142.7459286424025</v>
       </c>
       <c r="V15" t="n">
-        <v>142.7459286424025</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>142.7459286424025</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>142.7459286424025</v>
@@ -28491,7 +28491,7 @@
         <v>142.7459286424025</v>
       </c>
       <c r="E16" t="n">
-        <v>142.7459286424025</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>142.7459286424025</v>
@@ -28503,7 +28503,7 @@
         <v>142.7459286424025</v>
       </c>
       <c r="I16" t="n">
-        <v>117.5402481357105</v>
+        <v>41.94466318091288</v>
       </c>
       <c r="J16" t="n">
         <v>4.233474627595754</v>
@@ -28530,13 +28530,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.7459286424025</v>
       </c>
       <c r="T16" t="n">
-        <v>45.01582887974868</v>
+        <v>142.7459286424025</v>
       </c>
       <c r="U16" t="n">
         <v>142.7459286424025</v>
@@ -28548,7 +28548,7 @@
         <v>142.7459286424025</v>
       </c>
       <c r="X16" t="n">
-        <v>142.7459286424025</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>142.7459286424025</v>
@@ -28646,13 +28646,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>137.8506757089275</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>135.8398569848641</v>
@@ -28694,10 +28694,10 @@
         <v>143.7533427911297</v>
       </c>
       <c r="T18" t="n">
-        <v>194.10392297596</v>
+        <v>139.7109971854719</v>
       </c>
       <c r="U18" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28706,10 +28706,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28728,22 +28728,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.7303611761521</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I19" t="n">
-        <v>42.11259789750018</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28773,16 +28773,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5879326526201</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>221.5879326526201</v>
       </c>
       <c r="V19" t="n">
-        <v>221.5879326526201</v>
+        <v>61.17475495348998</v>
       </c>
       <c r="W19" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>221.5879326526201</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -28886,19 +28886,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>97.71325251404467</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,16 +28925,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>6.799003079515217</v>
       </c>
       <c r="S21" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>120.1687661196437</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>140.6759977072041</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28959,28 +28959,28 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7303611761521</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>117.5402481357105</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,10 +29004,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>120.611413834547</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>143.4512897036474</v>
+        <v>202.0474611689562</v>
       </c>
       <c r="T22" t="n">
         <v>221.5879326526201</v>
@@ -29019,10 +29019,10 @@
         <v>221.5879326526201</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>221.5879326526201</v>
       </c>
       <c r="X22" t="n">
-        <v>221.5879326526201</v>
+        <v>61.85047602280198</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.8398569848641</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>97.71325251404467</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,16 +29165,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>16.487119649972</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>194.10392297596</v>
       </c>
       <c r="U24" t="n">
-        <v>221.5879326526201</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>221.5879326526201</v>
+        <v>171.2793227115765</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -29208,10 +29208,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>63.68029281840583</v>
+        <v>166.7303611761521</v>
       </c>
       <c r="H25" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>117.5402481357105</v>
@@ -29241,10 +29241,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S25" t="n">
-        <v>202.0474611689562</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5879326526201</v>
@@ -29253,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>221.5879326526201</v>
+        <v>22.54558927933789</v>
       </c>
       <c r="W25" t="n">
         <v>221.5879326526201</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="C26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="D26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="E26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="F26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="G26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="H26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="I26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="T26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="U26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="V26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="W26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="X26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="C28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="D28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="E28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="F28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="G28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="H28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="I28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="J28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="K28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="L28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="M28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="N28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021721</v>
       </c>
       <c r="O28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="P28" t="n">
-        <v>78.84200401021778</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="R28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="S28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="T28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="U28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="V28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="W28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="X28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="C29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="D29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="E29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="F29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="G29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="H29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="I29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="T29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="U29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="V29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="W29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="X29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="C31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="D31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="E31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="F31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="G31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="H31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="I31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="J31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="K31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="L31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="M31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="N31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="O31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="P31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="R31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="S31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="T31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="U31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="V31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="W31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="X31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.84200401021762</v>
+        <v>78.84200401021765</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="C32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="D32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="E32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="F32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="G32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="H32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="I32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="T32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="U32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="V32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="W32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="X32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="Y32" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="C34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="D34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="E34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="F34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="G34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="H34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="I34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="J34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.8420040102171</v>
       </c>
       <c r="K34" t="n">
-        <v>78.84200401021721</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="L34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="M34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="N34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="O34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="P34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="R34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="S34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="T34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="U34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="V34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="W34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="X34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.84200401021765</v>
+        <v>78.84200401021768</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="C35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="D35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="E35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="F35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="G35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="H35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="I35" t="n">
         <v>102.1305654634749</v>
@@ -30037,22 +30037,22 @@
         <v>144.979629327204</v>
       </c>
       <c r="T35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="U35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="V35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="W35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="X35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="Y35" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
     </row>
     <row r="36">
@@ -30071,7 +30071,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30080,10 +30080,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>97.71325251404467</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>37.62587671097612</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>143.7533427911297</v>
       </c>
       <c r="T36" t="n">
-        <v>80.58552633130226</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>58.27957510092222</v>
       </c>
     </row>
     <row r="37">
@@ -30141,31 +30141,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9022891275491</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.7303611761521</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>151.0191308502045</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>117.5402481357105</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>120.611413834547</v>
       </c>
       <c r="S37" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="T37" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="U37" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="V37" t="n">
-        <v>180.1697533861253</v>
+        <v>180.1697533861252</v>
       </c>
       <c r="W37" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>164.3015987438698</v>
+        <v>180.1697533861252</v>
       </c>
     </row>
     <row r="38">
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>41.27659922468622</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.799003079515217</v>
       </c>
       <c r="S39" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>35.75490217019734</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30378,16 +30378,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.65126765239465</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>107.1284803078048</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -30435,13 +30435,13 @@
         <v>180.1697533861253</v>
       </c>
       <c r="U40" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>180.1697533861253</v>
       </c>
       <c r="W40" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>180.1697533861253</v>
@@ -30536,10 +30536,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>12.97506131145988</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -30587,19 +30587,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>180.1697533861253</v>
-      </c>
-      <c r="U42" t="n">
-        <v>35.75490217019734</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30615,19 +30615,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.7303611761521</v>
@@ -30636,7 +30636,7 @@
         <v>151.0191308502045</v>
       </c>
       <c r="I43" t="n">
-        <v>117.5402481357105</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>4.233474627595754</v>
@@ -30663,22 +30663,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>43.67443933281878</v>
+        <v>120.611413834547</v>
       </c>
       <c r="S43" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>180.1697533861253</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="W43" t="n">
-        <v>180.1697533861253</v>
+        <v>95.82706424504681</v>
       </c>
       <c r="X43" t="n">
         <v>180.1697533861253</v>
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>81.70000905805256</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30788,13 +30788,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.8398569848641</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>97.71325251404467</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>37.62587671097612</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30824,13 +30824,13 @@
         <v>6.799003079515217</v>
       </c>
       <c r="S45" t="n">
-        <v>143.7533427911297</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>180.1697533861253</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>28.95589909068315</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30870,13 +30870,13 @@
         <v>166.7303611761521</v>
       </c>
       <c r="H46" t="n">
-        <v>151.0191308502045</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>117.5402481357105</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>4.233474627595754</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,13 +30900,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>120.611413834547</v>
+        <v>70.08538061215066</v>
       </c>
       <c r="S46" t="n">
-        <v>163.0278173272453</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="U46" t="n">
         <v>180.1697533861253</v>
@@ -30918,7 +30918,7 @@
         <v>180.1697533861253</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>180.1697533861253</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.810331991620024</v>
+        <v>2.810331991620023</v>
       </c>
       <c r="H29" t="n">
-        <v>28.78131250917858</v>
+        <v>28.78131250917857</v>
       </c>
       <c r="I29" t="n">
-        <v>108.3453241069311</v>
+        <v>108.345324106931</v>
       </c>
       <c r="J29" t="n">
-        <v>238.5234148737602</v>
+        <v>238.5234148737601</v>
       </c>
       <c r="K29" t="n">
-        <v>357.4847680790359</v>
+        <v>357.4847680790358</v>
       </c>
       <c r="L29" t="n">
-        <v>443.4914657675773</v>
+        <v>443.4914657675772</v>
       </c>
       <c r="M29" t="n">
-        <v>493.4697073235499</v>
+        <v>493.4697073235498</v>
       </c>
       <c r="N29" t="n">
-        <v>501.4545630947404</v>
+        <v>501.4545630947402</v>
       </c>
       <c r="O29" t="n">
-        <v>473.5093243530687</v>
+        <v>473.5093243530686</v>
       </c>
       <c r="P29" t="n">
-        <v>404.1292533099493</v>
+        <v>404.1292533099491</v>
       </c>
       <c r="Q29" t="n">
-        <v>303.4842388600571</v>
+        <v>303.484238860057</v>
       </c>
       <c r="R29" t="n">
-        <v>176.5345169686015</v>
+        <v>176.5345169686014</v>
       </c>
       <c r="S29" t="n">
-        <v>64.04044025904136</v>
+        <v>64.04044025904135</v>
       </c>
       <c r="T29" t="n">
         <v>12.30222829331666</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2248265593296019</v>
+        <v>0.2248265593296018</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.503660178346508</v>
+        <v>1.503660178346507</v>
       </c>
       <c r="H30" t="n">
-        <v>14.5221917224518</v>
+        <v>14.52219172245179</v>
       </c>
       <c r="I30" t="n">
-        <v>51.77075614043897</v>
+        <v>51.77075614043896</v>
       </c>
       <c r="J30" t="n">
-        <v>142.0629118498339</v>
+        <v>142.0629118498338</v>
       </c>
       <c r="K30" t="n">
-        <v>242.8081437990499</v>
+        <v>242.8081437990498</v>
       </c>
       <c r="L30" t="n">
-        <v>326.4855137238766</v>
+        <v>326.4855137238765</v>
       </c>
       <c r="M30" t="n">
-        <v>380.9931951889374</v>
+        <v>380.9931951889372</v>
       </c>
       <c r="N30" t="n">
-        <v>391.0769513849542</v>
+        <v>391.076951384954</v>
       </c>
       <c r="O30" t="n">
-        <v>357.759007433171</v>
+        <v>357.7590074331709</v>
       </c>
       <c r="P30" t="n">
         <v>287.1331440563607</v>
       </c>
       <c r="Q30" t="n">
-        <v>191.9409027657753</v>
+        <v>191.9409027657752</v>
       </c>
       <c r="R30" t="n">
-        <v>93.35883107312793</v>
+        <v>93.3588310731279</v>
       </c>
       <c r="S30" t="n">
-        <v>27.92982831270814</v>
+        <v>27.92982831270812</v>
       </c>
       <c r="T30" t="n">
-        <v>6.060805718861578</v>
+        <v>6.060805718861577</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0989250117333229</v>
+        <v>0.09892501173332287</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.260618182306606</v>
+        <v>1.260618182306605</v>
       </c>
       <c r="H31" t="n">
         <v>11.2080416572351</v>
       </c>
       <c r="I31" t="n">
-        <v>37.91022679154776</v>
+        <v>37.91022679154775</v>
       </c>
       <c r="J31" t="n">
-        <v>89.12570548907703</v>
+        <v>89.12570548907701</v>
       </c>
       <c r="K31" t="n">
-        <v>146.4609124534402</v>
+        <v>146.4609124534401</v>
       </c>
       <c r="L31" t="n">
         <v>187.4195432131112</v>
       </c>
       <c r="M31" t="n">
-        <v>197.6076301592073</v>
+        <v>197.6076301592072</v>
       </c>
       <c r="N31" t="n">
-        <v>192.9089623887919</v>
+        <v>192.9089623887918</v>
       </c>
       <c r="O31" t="n">
-        <v>178.182649986392</v>
+        <v>178.1826499863919</v>
       </c>
       <c r="P31" t="n">
-        <v>152.4660390673371</v>
+        <v>152.466039067337</v>
       </c>
       <c r="Q31" t="n">
         <v>105.5595825202377</v>
       </c>
       <c r="R31" t="n">
-        <v>56.68197754262246</v>
+        <v>56.68197754262245</v>
       </c>
       <c r="S31" t="n">
         <v>21.96913686801602</v>
       </c>
       <c r="T31" t="n">
-        <v>5.386277688037315</v>
+        <v>5.386277688037313</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06876099176217858</v>
+        <v>0.06876099176217856</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K12" t="n">
-        <v>104.9667048246908</v>
+        <v>189.6026438084812</v>
       </c>
       <c r="L12" t="n">
         <v>187.9311339440023</v>
       </c>
       <c r="M12" t="n">
-        <v>238.859161266919</v>
+        <v>362.4734406970323</v>
       </c>
       <c r="N12" t="n">
-        <v>341.8944223751157</v>
+        <v>259.7352393016208</v>
       </c>
       <c r="O12" t="n">
         <v>215.1627629887265</v>
@@ -35741,10 +35741,10 @@
         <v>215.1627629887265</v>
       </c>
       <c r="P15" t="n">
-        <v>153.1587366420304</v>
+        <v>235.3179197155251</v>
       </c>
       <c r="Q15" t="n">
-        <v>134.118311753249</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K18" t="n">
         <v>104.9667048246908</v>
@@ -35978,10 +35978,10 @@
         <v>215.1627629887265</v>
       </c>
       <c r="P18" t="n">
-        <v>153.1587366420304</v>
+        <v>361.4089550559338</v>
       </c>
       <c r="Q18" t="n">
-        <v>134.1183117532495</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>57.47751034707392</v>
       </c>
       <c r="K20" t="n">
-        <v>137.3949170340558</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L20" t="n">
         <v>207.72505079759</v>
@@ -36139,7 +36139,7 @@
         <v>172.8962575546797</v>
       </c>
       <c r="Q20" t="n">
-        <v>81.17854898560753</v>
+        <v>81.17854898560616</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K21" t="n">
         <v>104.9667048246908</v>
@@ -36206,7 +36206,7 @@
         <v>187.9311339440023</v>
       </c>
       <c r="M21" t="n">
-        <v>238.859161266919</v>
+        <v>362.4734406970319</v>
       </c>
       <c r="N21" t="n">
         <v>259.7352393016208</v>
@@ -36218,7 +36218,7 @@
         <v>153.1587366420304</v>
       </c>
       <c r="Q21" t="n">
-        <v>134.1183117532495</v>
+        <v>136.5950676635436</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,10 +36358,10 @@
         <v>57.47751034707392</v>
       </c>
       <c r="K23" t="n">
-        <v>160.3557886472161</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L23" t="n">
-        <v>422.5185495357616</v>
+        <v>207.72505079759</v>
       </c>
       <c r="M23" t="n">
         <v>263.1234740962771</v>
@@ -36376,10 +36376,10 @@
         <v>172.8962575546797</v>
       </c>
       <c r="Q23" t="n">
-        <v>81.17854898560753</v>
+        <v>293.4935396455122</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>25.43937969142926</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>15.22528518316716</v>
       </c>
       <c r="K24" t="n">
-        <v>104.9667048246908</v>
+        <v>369.4319418372694</v>
       </c>
       <c r="L24" t="n">
         <v>187.9311339440023</v>
       </c>
       <c r="M24" t="n">
-        <v>252.7206269042832</v>
+        <v>238.859161266919</v>
       </c>
       <c r="N24" t="n">
-        <v>422.5185495357616</v>
+        <v>259.7352393016208</v>
       </c>
       <c r="O24" t="n">
-        <v>215.1627629887265</v>
+        <v>396.702114741386</v>
       </c>
       <c r="P24" t="n">
-        <v>422.5185495357616</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q24" t="n">
         <v>51.95912867975369</v>
@@ -36598,19 +36598,19 @@
         <v>461.5403296052201</v>
       </c>
       <c r="L26" t="n">
-        <v>625.3862653480405</v>
+        <v>207.72505079759</v>
       </c>
       <c r="M26" t="n">
         <v>712.6370075891095</v>
       </c>
       <c r="N26" t="n">
-        <v>709.3884239101335</v>
+        <v>599.0646900771453</v>
       </c>
       <c r="O26" t="n">
-        <v>418.0250539821717</v>
+        <v>624.2112941941273</v>
       </c>
       <c r="P26" t="n">
-        <v>172.8962575546797</v>
+        <v>494.6949657261623</v>
       </c>
       <c r="Q26" t="n">
         <v>293.4935396455122</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K27" t="n">
         <v>369.4319418372694</v>
       </c>
       <c r="L27" t="n">
-        <v>558.7714792474615</v>
+        <v>187.9311339440023</v>
       </c>
       <c r="M27" t="n">
-        <v>300.2632839685799</v>
+        <v>704.564225016919</v>
       </c>
       <c r="N27" t="n">
-        <v>259.7352393016208</v>
+        <v>739.0776136451743</v>
       </c>
       <c r="O27" t="n">
-        <v>215.1627629887265</v>
+        <v>356.9908846164882</v>
       </c>
       <c r="P27" t="n">
-        <v>471.6215052819676</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q27" t="n">
-        <v>262.0364164156028</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.60852938262187</v>
+        <v>74.6085293826219</v>
       </c>
       <c r="K28" t="n">
         <v>203.0334246377749</v>
@@ -36762,16 +36762,16 @@
         <v>316.0335111312655</v>
       </c>
       <c r="N28" t="n">
-        <v>315.8831387782381</v>
+        <v>315.8831387782377</v>
       </c>
       <c r="O28" t="n">
         <v>281.6097819106492</v>
       </c>
       <c r="P28" t="n">
-        <v>228.5866023424483</v>
+        <v>228.5866023424482</v>
       </c>
       <c r="Q28" t="n">
-        <v>98.23954327876092</v>
+        <v>98.23954327876095</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>226.5741255191477</v>
+        <v>226.5741255191476</v>
       </c>
       <c r="K29" t="n">
-        <v>461.5403296052201</v>
+        <v>461.54032960522</v>
       </c>
       <c r="L29" t="n">
-        <v>625.3862653480405</v>
+        <v>625.3862653480404</v>
       </c>
       <c r="M29" t="n">
-        <v>263.1234740962772</v>
+        <v>712.6370075891095</v>
       </c>
       <c r="N29" t="n">
-        <v>657.5824080469783</v>
+        <v>709.3884239101335</v>
       </c>
       <c r="O29" t="n">
-        <v>624.2112941941273</v>
+        <v>243.4111129313818</v>
       </c>
       <c r="P29" t="n">
-        <v>494.6949657261624</v>
+        <v>347.5101986054684</v>
       </c>
       <c r="Q29" t="n">
-        <v>293.4935396455123</v>
+        <v>293.4935396455122</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>26.66539902745174</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>141.316320523576</v>
       </c>
       <c r="K30" t="n">
-        <v>369.4319418372695</v>
+        <v>369.4319418372694</v>
       </c>
       <c r="L30" t="n">
-        <v>558.7714792474616</v>
+        <v>558.7714792474615</v>
       </c>
       <c r="M30" t="n">
-        <v>238.859161266919</v>
+        <v>238.8591612669189</v>
       </c>
       <c r="N30" t="n">
-        <v>259.7352393016208</v>
+        <v>739.0776136451743</v>
       </c>
       <c r="O30" t="n">
-        <v>276.5668856903867</v>
+        <v>325.7645677226205</v>
       </c>
       <c r="P30" t="n">
-        <v>471.6215052819676</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q30" t="n">
-        <v>262.0364164156028</v>
+        <v>51.95912867975366</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>316.0335111312655</v>
       </c>
       <c r="N31" t="n">
-        <v>315.8831387782382</v>
+        <v>315.8831387782381</v>
       </c>
       <c r="O31" t="n">
         <v>281.6097819106492</v>
       </c>
       <c r="P31" t="n">
-        <v>228.5866023424482</v>
+        <v>228.5866023424481</v>
       </c>
       <c r="Q31" t="n">
-        <v>98.23954327876095</v>
+        <v>98.23954327876093</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>226.5741255191477</v>
       </c>
       <c r="K32" t="n">
-        <v>172.5357709091378</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L32" t="n">
         <v>625.3862653480405</v>
@@ -37087,10 +37087,10 @@
         <v>494.6949657261623</v>
       </c>
       <c r="Q32" t="n">
-        <v>81.17854898560753</v>
+        <v>89.65400383323748</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>26.66539902745177</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>141.316320523576</v>
       </c>
       <c r="K33" t="n">
-        <v>369.4319418372694</v>
+        <v>104.9667048246908</v>
       </c>
       <c r="L33" t="n">
         <v>187.9311339440023</v>
       </c>
       <c r="M33" t="n">
-        <v>238.859161266919</v>
+        <v>704.564225016919</v>
       </c>
       <c r="N33" t="n">
-        <v>691.9797073067407</v>
+        <v>739.0776136451743</v>
       </c>
       <c r="O33" t="n">
-        <v>215.1627629887265</v>
+        <v>495.3650862886579</v>
       </c>
       <c r="P33" t="n">
-        <v>471.6215052819676</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q33" t="n">
-        <v>262.0364164156028</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.6085293826219</v>
+        <v>74.60852938262134</v>
       </c>
       <c r="K34" t="n">
-        <v>203.0334246377745</v>
+        <v>203.033424637775</v>
       </c>
       <c r="L34" t="n">
         <v>293.851572483645</v>
@@ -37239,13 +37239,13 @@
         <v>315.8831387782382</v>
       </c>
       <c r="O34" t="n">
-        <v>281.6097819106492</v>
+        <v>281.6097819106493</v>
       </c>
       <c r="P34" t="n">
         <v>228.5866023424482</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.23954327876095</v>
+        <v>98.23954327876098</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,10 +37306,10 @@
         <v>57.47751034707392</v>
       </c>
       <c r="K35" t="n">
-        <v>379.3908778945043</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L35" t="n">
-        <v>207.72505079759</v>
+        <v>456.4501055600656</v>
       </c>
       <c r="M35" t="n">
         <v>263.1234740962771</v>
@@ -37318,10 +37318,10 @@
         <v>272.0414994981493</v>
       </c>
       <c r="O35" t="n">
-        <v>243.4111129313819</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="P35" t="n">
-        <v>494.6949657261623</v>
+        <v>172.8962575546797</v>
       </c>
       <c r="Q35" t="n">
         <v>293.4935396455122</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>141.316320523576</v>
+        <v>93.05647416500058</v>
       </c>
       <c r="K36" t="n">
-        <v>104.9667048246908</v>
+        <v>369.4319418372694</v>
       </c>
       <c r="L36" t="n">
-        <v>558.4807272008379</v>
+        <v>187.9311339440023</v>
       </c>
       <c r="M36" t="n">
         <v>238.859161266919</v>
       </c>
       <c r="N36" t="n">
-        <v>537.3772010742678</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="O36" t="n">
-        <v>215.1627629887265</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="P36" t="n">
         <v>153.1587366420304</v>
       </c>
       <c r="Q36" t="n">
-        <v>262.0364164156028</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>57.47751034707392</v>
+        <v>226.5741255191477</v>
       </c>
       <c r="K38" t="n">
         <v>137.3949170340553</v>
@@ -37549,16 +37549,16 @@
         <v>207.72505079759</v>
       </c>
       <c r="M38" t="n">
-        <v>263.1234740962771</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="N38" t="n">
-        <v>272.0414994981493</v>
+        <v>344.7169012259946</v>
       </c>
       <c r="O38" t="n">
-        <v>458.7416747643794</v>
+        <v>243.4111129313819</v>
       </c>
       <c r="P38" t="n">
-        <v>494.6949657261623</v>
+        <v>172.8962575546797</v>
       </c>
       <c r="Q38" t="n">
         <v>293.4935396455122</v>
@@ -37622,25 +37622,25 @@
         <v>141.316320523576</v>
       </c>
       <c r="K39" t="n">
-        <v>104.9667048246908</v>
+        <v>369.4319418372694</v>
       </c>
       <c r="L39" t="n">
         <v>187.9311339440023</v>
       </c>
       <c r="M39" t="n">
-        <v>238.859161266919</v>
+        <v>533.9172791204551</v>
       </c>
       <c r="N39" t="n">
-        <v>259.7352393016208</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="O39" t="n">
-        <v>558.480727200838</v>
+        <v>215.1627629887265</v>
       </c>
       <c r="P39" t="n">
-        <v>471.6215052819676</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q39" t="n">
-        <v>248.447238593037</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>226.5741255191477</v>
+        <v>57.47751034707392</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0703187619007</v>
+        <v>137.3949170340553</v>
       </c>
       <c r="L41" t="n">
-        <v>207.72505079759</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="M41" t="n">
-        <v>558.480727200838</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="N41" t="n">
         <v>272.0414994981493</v>
@@ -37798,10 +37798,10 @@
         <v>172.8962575546797</v>
       </c>
       <c r="Q41" t="n">
-        <v>293.4935396455122</v>
+        <v>211.175279169635</v>
       </c>
       <c r="R41" t="n">
-        <v>26.66539902745177</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>141.316320523576</v>
+        <v>15.22528518316716</v>
       </c>
       <c r="K42" t="n">
         <v>104.9667048246908</v>
       </c>
       <c r="L42" t="n">
-        <v>558.480727200838</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="M42" t="n">
-        <v>238.859161266919</v>
+        <v>509.3514819037122</v>
       </c>
       <c r="N42" t="n">
         <v>259.7352393016208</v>
       </c>
       <c r="O42" t="n">
-        <v>215.1627629887265</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="P42" t="n">
-        <v>471.6215052819676</v>
+        <v>153.1587366420304</v>
       </c>
       <c r="Q42" t="n">
-        <v>221.2156095483126</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>226.5741255191477</v>
+        <v>57.47751034707392</v>
       </c>
       <c r="K44" t="n">
-        <v>137.3949170340553</v>
+        <v>305.0426968911903</v>
       </c>
       <c r="L44" t="n">
         <v>207.72505079759</v>
       </c>
       <c r="M44" t="n">
-        <v>263.1234740962771</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="N44" t="n">
-        <v>558.4807272008378</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="O44" t="n">
         <v>243.4111129313819</v>
       </c>
       <c r="P44" t="n">
-        <v>281.1550837118485</v>
+        <v>172.8962575546797</v>
       </c>
       <c r="Q44" t="n">
-        <v>293.4935396455122</v>
+        <v>81.17854898560753</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>26.66539902745177</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>141.316320523576</v>
       </c>
       <c r="K45" t="n">
-        <v>104.9667048246908</v>
+        <v>344.8684937568866</v>
       </c>
       <c r="L45" t="n">
-        <v>558.4807272008378</v>
+        <v>187.9311339440023</v>
       </c>
       <c r="M45" t="n">
-        <v>516.5011230395656</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="N45" t="n">
-        <v>259.7352393016208</v>
+        <v>558.4807272008379</v>
       </c>
       <c r="O45" t="n">
         <v>215.1627629887265</v>
@@ -38114,7 +38114,7 @@
         <v>153.1587366420304</v>
       </c>
       <c r="Q45" t="n">
-        <v>262.0364164156028</v>
+        <v>51.95912867975369</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
